--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1051">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -2593,6 +2593,9 @@
     <t xml:space="preserve">Jan 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Feb 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -3169,7 +3172,7 @@
     <t xml:space="preserve">Jun 1968</t>
   </si>
   <si>
-    <t xml:space="preserve">Feb 2025</t>
+    <t xml:space="preserve">Mar 2025</t>
   </si>
 </sst>
 </file>
@@ -18491,6 +18494,14 @@
         <v>20993.4</v>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>857</v>
+      </c>
+      <c r="B591" t="n">
+        <v>20994.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18511,7 +18522,7 @@
         <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2">
@@ -23223,6 +23234,14 @@
         <v>856</v>
       </c>
       <c r="B590" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>857</v>
+      </c>
+      <c r="B591" t="n">
         <v>6.6</v>
       </c>
     </row>
@@ -23246,7 +23265,7 @@
         <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2">
@@ -24819,7 +24838,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B198"/>
     </row>
@@ -24843,12 +24862,12 @@
         <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -24856,7 +24875,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -24864,7 +24883,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -24872,7 +24891,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -24880,7 +24899,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -24888,7 +24907,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -24896,7 +24915,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -24904,7 +24923,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -24912,7 +24931,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -24920,7 +24939,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -24928,7 +24947,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -24936,7 +24955,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -24944,7 +24963,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -24952,7 +24971,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -24960,7 +24979,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -24968,7 +24987,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -24976,7 +24995,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -24984,7 +25003,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -24992,7 +25011,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25000,7 +25019,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25008,7 +25027,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25016,7 +25035,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25024,7 +25043,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25032,7 +25051,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25040,7 +25059,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25048,7 +25067,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25056,7 +25075,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25064,7 +25083,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25072,7 +25091,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25080,7 +25099,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25088,7 +25107,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25096,7 +25115,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25104,7 +25123,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25112,7 +25131,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25120,7 +25139,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25128,7 +25147,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25136,7 +25155,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25144,7 +25163,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25152,7 +25171,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25160,7 +25179,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25168,7 +25187,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25176,7 +25195,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25184,7 +25203,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25192,7 +25211,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25200,7 +25219,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25208,7 +25227,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25216,7 +25235,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25224,7 +25243,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25232,7 +25251,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25240,7 +25259,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25248,7 +25267,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25256,7 +25275,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25264,7 +25283,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25272,7 +25291,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25280,7 +25299,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25288,7 +25307,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25296,7 +25315,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25304,7 +25323,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25312,7 +25331,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25320,7 +25339,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25328,7 +25347,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25336,7 +25355,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25344,7 +25363,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25352,7 +25371,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25360,7 +25379,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25368,7 +25387,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25376,7 +25395,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25384,7 +25403,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25392,7 +25411,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25400,7 +25419,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25408,7 +25427,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25416,7 +25435,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25424,7 +25443,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25432,7 +25451,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25440,7 +25459,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25448,7 +25467,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25456,7 +25475,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25464,7 +25483,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25472,7 +25491,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25480,7 +25499,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25488,7 +25507,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25496,7 +25515,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25504,7 +25523,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25512,7 +25531,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25520,7 +25539,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25528,7 +25547,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25536,7 +25555,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25544,7 +25563,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25552,7 +25571,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25560,7 +25579,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -27963,7 +27982,7 @@
         <v>567</v>
       </c>
       <c r="B391" t="n">
-        <v>5.38776457479554</v>
+        <v>5.38808112221689</v>
       </c>
     </row>
     <row r="392">
@@ -27971,7 +27990,7 @@
         <v>568</v>
       </c>
       <c r="B392" t="n">
-        <v>4.49363930404971</v>
+        <v>4.49367872370512</v>
       </c>
     </row>
     <row r="393">
@@ -27979,7 +27998,7 @@
         <v>569</v>
       </c>
       <c r="B393" t="n">
-        <v>5.47787513260143</v>
+        <v>5.47822187200391</v>
       </c>
     </row>
     <row r="394">
@@ -27987,7 +28006,7 @@
         <v>570</v>
       </c>
       <c r="B394" t="n">
-        <v>6.57599099530068</v>
+        <v>6.57602754846944</v>
       </c>
     </row>
     <row r="395">
@@ -27995,7 +28014,7 @@
         <v>571</v>
       </c>
       <c r="B395" t="n">
-        <v>6.81074021745932</v>
+        <v>6.81077677062808</v>
       </c>
     </row>
     <row r="396">
@@ -28003,7 +28022,7 @@
         <v>572</v>
       </c>
       <c r="B396" t="n">
-        <v>7.63573843753633</v>
+        <v>7.63547904169498</v>
       </c>
     </row>
     <row r="397">
@@ -28011,7 +28030,7 @@
         <v>573</v>
       </c>
       <c r="B397" t="n">
-        <v>5.24018416185086</v>
+        <v>5.23987720756157</v>
       </c>
     </row>
     <row r="398">
@@ -28019,7 +28038,7 @@
         <v>574</v>
       </c>
       <c r="B398" t="n">
-        <v>6.50283211675688</v>
+        <v>6.50309189504967</v>
       </c>
     </row>
     <row r="399">
@@ -28027,7 +28046,7 @@
         <v>575</v>
       </c>
       <c r="B399" t="n">
-        <v>5.69502696877343</v>
+        <v>5.69497819128243</v>
       </c>
     </row>
     <row r="400">
@@ -28035,7 +28054,7 @@
         <v>576</v>
       </c>
       <c r="B400" t="n">
-        <v>6.70785257738868</v>
+        <v>6.70779567154793</v>
       </c>
     </row>
     <row r="401">
@@ -28043,7 +28062,7 @@
         <v>577</v>
       </c>
       <c r="B401" t="n">
-        <v>7.84733592017087</v>
+        <v>7.84727901433012</v>
       </c>
     </row>
     <row r="402">
@@ -28051,7 +28070,7 @@
         <v>578</v>
       </c>
       <c r="B402" t="n">
-        <v>9.06658938085703</v>
+        <v>9.06652560399506</v>
       </c>
     </row>
     <row r="403">
@@ -28059,7 +28078,7 @@
         <v>579</v>
       </c>
       <c r="B403" t="n">
-        <v>11.3603052512511</v>
+        <v>11.3602663723599</v>
       </c>
     </row>
     <row r="404">
@@ -28067,7 +28086,7 @@
         <v>580</v>
       </c>
       <c r="B404" t="n">
-        <v>11.7686367861495</v>
+        <v>11.7685886437283</v>
       </c>
     </row>
     <row r="405">
@@ -28075,7 +28094,7 @@
         <v>581</v>
       </c>
       <c r="B405" t="n">
-        <v>11.7110048313549</v>
+        <v>11.7109568331827</v>
       </c>
     </row>
     <row r="406">
@@ -28083,7 +28102,7 @@
         <v>582</v>
       </c>
       <c r="B406" t="n">
-        <v>9.61350998196942</v>
+        <v>9.61351136110512</v>
       </c>
     </row>
     <row r="407">
@@ -28091,7 +28110,7 @@
         <v>583</v>
       </c>
       <c r="B407" t="n">
-        <v>7.86508152805713</v>
+        <v>7.86508290719283</v>
       </c>
     </row>
     <row r="408">
@@ -28099,7 +28118,7 @@
         <v>584</v>
       </c>
       <c r="B408" t="n">
-        <v>5.24523880222954</v>
+        <v>5.24554300139656</v>
       </c>
     </row>
     <row r="409">
@@ -28107,7 +28126,7 @@
         <v>585</v>
       </c>
       <c r="B409" t="n">
-        <v>4.08175275572583</v>
+        <v>4.08149545124781</v>
       </c>
     </row>
     <row r="410">
@@ -28115,7 +28134,7 @@
         <v>586</v>
       </c>
       <c r="B410" t="n">
-        <v>3.61431158955954</v>
+        <v>3.6140435566866</v>
       </c>
     </row>
     <row r="411">
@@ -28123,7 +28142,7 @@
         <v>587</v>
       </c>
       <c r="B411" t="n">
-        <v>3.98757499384084</v>
+        <v>3.98730805275558</v>
       </c>
     </row>
     <row r="412">
@@ -28131,7 +28150,7 @@
         <v>588</v>
       </c>
       <c r="B412" t="n">
-        <v>4.21457531261977</v>
+        <v>4.21457730881008</v>
       </c>
     </row>
     <row r="413">
@@ -28139,7 +28158,7 @@
         <v>589</v>
       </c>
       <c r="B413" t="n">
-        <v>5.39427416508756</v>
+        <v>5.39427616127787</v>
       </c>
     </row>
     <row r="414">
@@ -28147,7 +28166,7 @@
         <v>590</v>
       </c>
       <c r="B414" t="n">
-        <v>6.0299745516918</v>
+        <v>6.02997654788212</v>
       </c>
     </row>
     <row r="415">
@@ -28155,7 +28174,7 @@
         <v>591</v>
       </c>
       <c r="B415" t="n">
-        <v>5.41294978096561</v>
+        <v>5.41321939385672</v>
       </c>
     </row>
     <row r="416">
@@ -28171,7 +28190,7 @@
         <v>593</v>
       </c>
       <c r="B417" t="n">
-        <v>4.87894201961809</v>
+        <v>4.87868328111238</v>
       </c>
     </row>
     <row r="418">
@@ -28179,7 +28198,7 @@
         <v>594</v>
       </c>
       <c r="B418" t="n">
-        <v>4.84874708382302</v>
+        <v>4.84900811629279</v>
       </c>
     </row>
     <row r="419">
@@ -28187,7 +28206,7 @@
         <v>595</v>
       </c>
       <c r="B419" t="n">
-        <v>3.623974187081</v>
+        <v>3.62398777666102</v>
       </c>
     </row>
     <row r="420">
@@ -28195,7 +28214,7 @@
         <v>596</v>
       </c>
       <c r="B420" t="n">
-        <v>3.593647641418</v>
+        <v>3.59366123099802</v>
       </c>
     </row>
     <row r="421">
@@ -28203,7 +28222,7 @@
         <v>597</v>
       </c>
       <c r="B421" t="n">
-        <v>4.43972783478788</v>
+        <v>4.4397414243679</v>
       </c>
     </row>
     <row r="422">
@@ -28211,7 +28230,7 @@
         <v>598</v>
       </c>
       <c r="B422" t="n">
-        <v>5.04162207023113</v>
+        <v>5.04137441821199</v>
       </c>
     </row>
     <row r="423">
@@ -28219,7 +28238,7 @@
         <v>599</v>
       </c>
       <c r="B423" t="n">
-        <v>5.15658165383863</v>
+        <v>5.15684794963497</v>
       </c>
     </row>
     <row r="424">
@@ -28227,7 +28246,7 @@
         <v>600</v>
       </c>
       <c r="B424" t="n">
-        <v>4.83289913645513</v>
+        <v>4.832645661276</v>
       </c>
     </row>
     <row r="425">
@@ -28235,7 +28254,7 @@
         <v>601</v>
       </c>
       <c r="B425" t="n">
-        <v>4.73254921618487</v>
+        <v>4.73254318389548</v>
       </c>
     </row>
     <row r="426">
@@ -28243,7 +28262,7 @@
         <v>602</v>
       </c>
       <c r="B426" t="n">
-        <v>4.93360489646302</v>
+        <v>4.93359886417363</v>
       </c>
     </row>
     <row r="427">
@@ -28251,7 +28270,7 @@
         <v>603</v>
       </c>
       <c r="B427" t="n">
-        <v>4.7825555042114</v>
+        <v>4.78254947192202</v>
       </c>
     </row>
     <row r="428">
@@ -28259,7 +28278,7 @@
         <v>604</v>
       </c>
       <c r="B428" t="n">
-        <v>4.62349513668575</v>
+        <v>4.62375034599554</v>
       </c>
     </row>
     <row r="429">
@@ -28275,7 +28294,7 @@
         <v>606</v>
       </c>
       <c r="B430" t="n">
-        <v>4.67719744044679</v>
+        <v>4.67744436809171</v>
       </c>
     </row>
     <row r="431">
@@ -28283,7 +28302,7 @@
         <v>607</v>
       </c>
       <c r="B431" t="n">
-        <v>5.35262601003037</v>
+        <v>5.35287204561679</v>
       </c>
     </row>
     <row r="432">
@@ -28291,7 +28310,7 @@
         <v>608</v>
       </c>
       <c r="B432" t="n">
-        <v>5.67067600777315</v>
+        <v>5.67067388906248</v>
       </c>
     </row>
     <row r="433">
@@ -28299,7 +28318,7 @@
         <v>609</v>
       </c>
       <c r="B433" t="n">
-        <v>6.12433666003697</v>
+        <v>6.12408523716442</v>
       </c>
     </row>
     <row r="434">
@@ -28307,7 +28326,7 @@
         <v>610</v>
       </c>
       <c r="B434" t="n">
-        <v>5.19920518333139</v>
+        <v>5.19895411566386</v>
       </c>
     </row>
     <row r="435">
@@ -28315,7 +28334,7 @@
         <v>611</v>
       </c>
       <c r="B435" t="n">
-        <v>5.01973050203921</v>
+        <v>5.01971716226127</v>
       </c>
     </row>
     <row r="436">
@@ -28323,7 +28342,7 @@
         <v>612</v>
       </c>
       <c r="B436" t="n">
-        <v>4.22816026650631</v>
+        <v>4.22766897849417</v>
       </c>
     </row>
     <row r="437">
@@ -28331,7 +28350,7 @@
         <v>613</v>
       </c>
       <c r="B437" t="n">
-        <v>4.13749175655022</v>
+        <v>4.13747683856285</v>
       </c>
     </row>
     <row r="438">
@@ -28339,7 +28358,7 @@
         <v>614</v>
       </c>
       <c r="B438" t="n">
-        <v>3.49798849466994</v>
+        <v>3.49798728133808</v>
       </c>
     </row>
     <row r="439">
@@ -28347,7 +28366,7 @@
         <v>615</v>
       </c>
       <c r="B439" t="n">
-        <v>3.52256264585902</v>
+        <v>3.52281073668904</v>
       </c>
     </row>
     <row r="440">
@@ -28355,7 +28374,7 @@
         <v>616</v>
       </c>
       <c r="B440" t="n">
-        <v>4.82727093987323</v>
+        <v>4.82751867549824</v>
       </c>
     </row>
     <row r="441">
@@ -28363,7 +28382,7 @@
         <v>617</v>
       </c>
       <c r="B441" t="n">
-        <v>5.28706799809482</v>
+        <v>5.28731525681751</v>
       </c>
     </row>
     <row r="442">
@@ -28371,7 +28390,7 @@
         <v>618</v>
       </c>
       <c r="B442" t="n">
-        <v>5.84953527084852</v>
+        <v>5.84978065624273</v>
       </c>
     </row>
     <row r="443">
@@ -28379,7 +28398,7 @@
         <v>619</v>
       </c>
       <c r="B443" t="n">
-        <v>5.97713401946198</v>
+        <v>5.97690392688992</v>
       </c>
     </row>
     <row r="444">
@@ -28387,7 +28406,7 @@
         <v>620</v>
       </c>
       <c r="B444" t="n">
-        <v>6.31226649917547</v>
+        <v>6.31203950728091</v>
       </c>
     </row>
     <row r="445">
@@ -28395,7 +28414,7 @@
         <v>621</v>
       </c>
       <c r="B445" t="n">
-        <v>5.63993417591857</v>
+        <v>5.64016779455634</v>
       </c>
     </row>
     <row r="446">
@@ -28403,7 +28422,7 @@
         <v>622</v>
       </c>
       <c r="B446" t="n">
-        <v>3.8120877842657</v>
+        <v>3.81232164055111</v>
       </c>
     </row>
     <row r="447">
@@ -28411,7 +28430,7 @@
         <v>623</v>
       </c>
       <c r="B447" t="n">
-        <v>3.27692255880103</v>
+        <v>3.27646578114168</v>
       </c>
     </row>
     <row r="448">
@@ -28419,7 +28438,7 @@
         <v>624</v>
       </c>
       <c r="B448" t="n">
-        <v>3.62338207635297</v>
+        <v>3.62362454672577</v>
       </c>
     </row>
     <row r="449">
@@ -28427,7 +28446,7 @@
         <v>625</v>
       </c>
       <c r="B449" t="n">
-        <v>4.17379412407101</v>
+        <v>4.17403508164388</v>
       </c>
     </row>
     <row r="450">
@@ -28435,7 +28454,7 @@
         <v>626</v>
       </c>
       <c r="B450" t="n">
-        <v>3.99138522748048</v>
+        <v>3.99163233520028</v>
       </c>
     </row>
     <row r="451">
@@ -28443,7 +28462,7 @@
         <v>627</v>
       </c>
       <c r="B451" t="n">
-        <v>4.52441533219729</v>
+        <v>4.52397002766337</v>
       </c>
     </row>
     <row r="452">
@@ -28451,7 +28470,7 @@
         <v>628</v>
       </c>
       <c r="B452" t="n">
-        <v>5.71347541582138</v>
+        <v>5.71325788153413</v>
       </c>
     </row>
     <row r="453">
@@ -28459,7 +28478,7 @@
         <v>629</v>
       </c>
       <c r="B453" t="n">
-        <v>6.80236624737</v>
+        <v>6.8028351081169</v>
       </c>
     </row>
     <row r="454">
@@ -28467,7 +28486,7 @@
         <v>630</v>
       </c>
       <c r="B454" t="n">
-        <v>6.88358708793445</v>
+        <v>6.88336234125057</v>
       </c>
     </row>
     <row r="455">
@@ -28475,7 +28494,7 @@
         <v>631</v>
       </c>
       <c r="B455" t="n">
-        <v>6.50793046508252</v>
+        <v>6.50770723119857</v>
       </c>
     </row>
     <row r="456">
@@ -28483,7 +28502,7 @@
         <v>632</v>
       </c>
       <c r="B456" t="n">
-        <v>6.3654100908682</v>
+        <v>6.36541205580142</v>
       </c>
     </row>
     <row r="457">
@@ -28491,7 +28510,7 @@
         <v>633</v>
       </c>
       <c r="B457" t="n">
-        <v>6.31706393184737</v>
+        <v>6.31729769850196</v>
       </c>
     </row>
     <row r="458">
@@ -28499,7 +28518,7 @@
         <v>634</v>
       </c>
       <c r="B458" t="n">
-        <v>6.96896302520226</v>
+        <v>6.96896878396254</v>
       </c>
     </row>
     <row r="459">
@@ -28507,7 +28526,7 @@
         <v>635</v>
       </c>
       <c r="B459" t="n">
-        <v>7.06123338575168</v>
+        <v>7.06100613243529</v>
       </c>
     </row>
     <row r="460">
@@ -28515,7 +28534,7 @@
         <v>636</v>
       </c>
       <c r="B460" t="n">
-        <v>7.72300626068457</v>
+        <v>7.72323216046531</v>
       </c>
     </row>
     <row r="461">
@@ -28523,7 +28542,7 @@
         <v>637</v>
       </c>
       <c r="B461" t="n">
-        <v>8.53900802841013</v>
+        <v>8.53900824235068</v>
       </c>
     </row>
     <row r="462">
@@ -28531,7 +28550,7 @@
         <v>638</v>
       </c>
       <c r="B462" t="n">
-        <v>9.76761548372804</v>
+        <v>9.7676156976686</v>
       </c>
     </row>
     <row r="463">
@@ -28539,7 +28558,7 @@
         <v>639</v>
       </c>
       <c r="B463" t="n">
-        <v>9.87615958711426</v>
+        <v>9.87615980105482</v>
       </c>
     </row>
     <row r="464">
@@ -28547,7 +28566,7 @@
         <v>640</v>
       </c>
       <c r="B464" t="n">
-        <v>9.49478187264543</v>
+        <v>9.49499502375931</v>
       </c>
     </row>
     <row r="465">
@@ -28555,7 +28574,7 @@
         <v>641</v>
       </c>
       <c r="B465" t="n">
-        <v>9.03501095162727</v>
+        <v>9.03522286047473</v>
       </c>
     </row>
     <row r="466">
@@ -28563,7 +28582,7 @@
         <v>642</v>
       </c>
       <c r="B466" t="n">
-        <v>8.85280846475809</v>
+        <v>8.85257843213074</v>
       </c>
     </row>
     <row r="467">
@@ -28571,7 +28590,7 @@
         <v>643</v>
       </c>
       <c r="B467" t="n">
-        <v>8.07613461400607</v>
+        <v>8.07633647896248</v>
       </c>
     </row>
     <row r="468">
@@ -28579,7 +28598,7 @@
         <v>644</v>
       </c>
       <c r="B468" t="n">
-        <v>6.74531737984635</v>
+        <v>6.74532056975365</v>
       </c>
     </row>
     <row r="469">
@@ -28587,7 +28606,7 @@
         <v>645</v>
       </c>
       <c r="B469" t="n">
-        <v>6.94847436054944</v>
+        <v>6.9482670685418</v>
       </c>
     </row>
     <row r="470">
@@ -28595,7 +28614,7 @@
         <v>646</v>
       </c>
       <c r="B470" t="n">
-        <v>7.72200723098466</v>
+        <v>7.72180311944218</v>
       </c>
     </row>
     <row r="471">
@@ -28603,7 +28622,7 @@
         <v>647</v>
       </c>
       <c r="B471" t="n">
-        <v>7.8609151523533</v>
+        <v>7.86071228307724</v>
       </c>
     </row>
     <row r="472">
@@ -28611,7 +28630,7 @@
         <v>648</v>
       </c>
       <c r="B472" t="n">
-        <v>7.46084892120005</v>
+        <v>7.46086209361806</v>
       </c>
     </row>
     <row r="473">
@@ -28619,7 +28638,7 @@
         <v>649</v>
       </c>
       <c r="B473" t="n">
-        <v>6.61297556841874</v>
+        <v>6.61278252909317</v>
       </c>
     </row>
     <row r="474">
@@ -28627,7 +28646,7 @@
         <v>650</v>
       </c>
       <c r="B474" t="n">
-        <v>7.61516319466432</v>
+        <v>7.61516883038786</v>
       </c>
     </row>
     <row r="475">
@@ -28635,7 +28654,7 @@
         <v>651</v>
       </c>
       <c r="B475" t="n">
-        <v>8.13873379912899</v>
+        <v>8.13874162105124</v>
       </c>
     </row>
     <row r="476">
@@ -28643,7 +28662,7 @@
         <v>652</v>
       </c>
       <c r="B476" t="n">
-        <v>8.83791882249807</v>
+        <v>8.83771322229577</v>
       </c>
     </row>
     <row r="477">
@@ -28651,7 +28670,7 @@
         <v>653</v>
       </c>
       <c r="B477" t="n">
-        <v>9.70694248338069</v>
+        <v>9.70694444175028</v>
       </c>
     </row>
     <row r="478">
@@ -28659,7 +28678,7 @@
         <v>654</v>
       </c>
       <c r="B478" t="n">
-        <v>10.8927541228399</v>
+        <v>10.8927560812095</v>
       </c>
     </row>
     <row r="479">
@@ -28667,7 +28686,7 @@
         <v>655</v>
       </c>
       <c r="B479" t="n">
-        <v>12.4304474033291</v>
+        <v>12.4306451614211</v>
       </c>
     </row>
     <row r="480">
@@ -28675,7 +28694,7 @@
         <v>656</v>
       </c>
       <c r="B480" t="n">
-        <v>12.6028147649114</v>
+        <v>12.6028184396834</v>
       </c>
     </row>
     <row r="481">
@@ -28683,7 +28702,7 @@
         <v>657</v>
       </c>
       <c r="B481" t="n">
-        <v>12.1407285057405</v>
+        <v>12.1409404762287</v>
       </c>
     </row>
     <row r="482">
@@ -28691,7 +28710,7 @@
         <v>658</v>
       </c>
       <c r="B482" t="n">
-        <v>10.7706253230653</v>
+        <v>10.7710226696739</v>
       </c>
     </row>
     <row r="483">
@@ -28699,7 +28718,7 @@
         <v>659</v>
       </c>
       <c r="B483" t="n">
-        <v>10.3478520251619</v>
+        <v>10.3478489992837</v>
       </c>
     </row>
     <row r="484">
@@ -28707,7 +28726,7 @@
         <v>660</v>
       </c>
       <c r="B484" t="n">
-        <v>9.84127714351003</v>
+        <v>9.84127411763182</v>
       </c>
     </row>
     <row r="485">
@@ -28715,7 +28734,7 @@
         <v>661</v>
       </c>
       <c r="B485" t="n">
-        <v>10.5909043371209</v>
+        <v>10.5907055115202</v>
       </c>
     </row>
     <row r="486">
@@ -28723,7 +28742,7 @@
         <v>662</v>
       </c>
       <c r="B486" t="n">
-        <v>12.7040175076694</v>
+        <v>12.7040127653888</v>
       </c>
     </row>
     <row r="487">
@@ -28731,7 +28750,7 @@
         <v>663</v>
       </c>
       <c r="B487" t="n">
-        <v>14.6829375062373</v>
+        <v>14.6829327639567</v>
       </c>
     </row>
     <row r="488">
@@ -28739,7 +28758,7 @@
         <v>664</v>
       </c>
       <c r="B488" t="n">
-        <v>16.5680543138697</v>
+        <v>16.5680539985482</v>
       </c>
     </row>
     <row r="489">
@@ -28747,7 +28766,7 @@
         <v>665</v>
       </c>
       <c r="B489" t="n">
-        <v>16.765182470481</v>
+        <v>16.7651944073441</v>
       </c>
     </row>
     <row r="490">
@@ -28755,7 +28774,7 @@
         <v>666</v>
       </c>
       <c r="B490" t="n">
-        <v>17.3338976683492</v>
+        <v>17.3339096052123</v>
       </c>
     </row>
     <row r="491">
@@ -28763,7 +28782,7 @@
         <v>667</v>
       </c>
       <c r="B491" t="n">
-        <v>16.3945485718638</v>
+        <v>16.3947313929347</v>
       </c>
     </row>
     <row r="492">
@@ -28771,7 +28790,7 @@
         <v>668</v>
       </c>
       <c r="B492" t="n">
-        <v>13.4738467710732</v>
+        <v>13.4740290164336</v>
       </c>
     </row>
     <row r="493">
@@ -28779,7 +28798,7 @@
         <v>669</v>
       </c>
       <c r="B493" t="n">
-        <v>10.5560763587557</v>
+        <v>10.5560962654508</v>
       </c>
     </row>
     <row r="494">
@@ -28787,7 +28806,7 @@
         <v>670</v>
       </c>
       <c r="B494" t="n">
-        <v>8.57204378166477</v>
+        <v>8.57203756432083</v>
       </c>
     </row>
     <row r="495">
@@ -28795,7 +28814,7 @@
         <v>671</v>
       </c>
       <c r="B495" t="n">
-        <v>7.8589399096239</v>
+        <v>7.85894753452717</v>
       </c>
     </row>
     <row r="496">
@@ -28803,7 +28822,7 @@
         <v>672</v>
       </c>
       <c r="B496" t="n">
-        <v>5.91327726437587</v>
+        <v>5.91328488927915</v>
       </c>
     </row>
     <row r="497">
@@ -28811,7 +28830,7 @@
         <v>673</v>
       </c>
       <c r="B497" t="n">
-        <v>4.93876044035937</v>
+        <v>4.9387550597872</v>
       </c>
     </row>
     <row r="498">
@@ -28819,7 +28838,7 @@
         <v>674</v>
       </c>
       <c r="B498" t="n">
-        <v>4.77344123760203</v>
+        <v>4.7734360015614</v>
       </c>
     </row>
     <row r="499">
@@ -28827,7 +28846,7 @@
         <v>675</v>
       </c>
       <c r="B499" t="n">
-        <v>4.21194269152193</v>
+        <v>4.21179292552047</v>
       </c>
     </row>
     <row r="500">
@@ -28835,7 +28854,7 @@
         <v>676</v>
       </c>
       <c r="B500" t="n">
-        <v>3.12563802031068</v>
+        <v>3.12547591987432</v>
       </c>
     </row>
     <row r="501">
@@ -28843,7 +28862,7 @@
         <v>677</v>
       </c>
       <c r="B501" t="n">
-        <v>2.86205557672044</v>
+        <v>2.86206019576717</v>
       </c>
     </row>
     <row r="502">
@@ -28851,7 +28870,7 @@
         <v>678</v>
       </c>
       <c r="B502" t="n">
-        <v>2.61423559357344</v>
+        <v>2.61408630183362</v>
       </c>
     </row>
     <row r="503">
@@ -28859,7 +28878,7 @@
         <v>679</v>
       </c>
       <c r="B503" t="n">
-        <v>2.27391500383641</v>
+        <v>2.27376101042088</v>
       </c>
     </row>
     <row r="504">
@@ -28867,7 +28886,7 @@
         <v>680</v>
       </c>
       <c r="B504" t="n">
-        <v>3.05410151544684</v>
+        <v>3.05394795321026</v>
       </c>
     </row>
     <row r="505">
@@ -28875,7 +28894,7 @@
         <v>681</v>
       </c>
       <c r="B505" t="n">
-        <v>3.77673026507462</v>
+        <v>3.7770406768944</v>
       </c>
     </row>
     <row r="506">
@@ -28883,7 +28902,7 @@
         <v>682</v>
       </c>
       <c r="B506" t="n">
-        <v>4.4309030475853</v>
+        <v>4.43074581318809</v>
       </c>
     </row>
     <row r="507">
@@ -28891,7 +28910,7 @@
         <v>683</v>
       </c>
       <c r="B507" t="n">
-        <v>4.10197211655023</v>
+        <v>4.10181540725711</v>
       </c>
     </row>
     <row r="508">
@@ -28899,7 +28918,7 @@
         <v>684</v>
       </c>
       <c r="B508" t="n">
-        <v>4.83218752226776</v>
+        <v>4.83234230501522</v>
       </c>
     </row>
     <row r="509">
@@ -28907,7 +28926,7 @@
         <v>685</v>
       </c>
       <c r="B509" t="n">
-        <v>5.21860393791315</v>
+        <v>5.21860554360397</v>
       </c>
     </row>
     <row r="510">
@@ -28915,7 +28934,7 @@
         <v>686</v>
       </c>
       <c r="B510" t="n">
-        <v>3.81004270066618</v>
+        <v>3.810044306357</v>
       </c>
     </row>
     <row r="511">
@@ -28923,7 +28942,7 @@
         <v>687</v>
       </c>
       <c r="B511" t="n">
-        <v>3.54781822447457</v>
+        <v>3.5475106372105</v>
       </c>
     </row>
     <row r="512">
@@ -28931,7 +28950,7 @@
         <v>688</v>
       </c>
       <c r="B512" t="n">
-        <v>3.51678017452574</v>
+        <v>3.51694033545404</v>
       </c>
     </row>
     <row r="513">
@@ -28939,7 +28958,7 @@
         <v>689</v>
       </c>
       <c r="B513" t="n">
-        <v>3.46360610749866</v>
+        <v>3.46361394475927</v>
       </c>
     </row>
     <row r="514">
@@ -28947,7 +28966,7 @@
         <v>690</v>
       </c>
       <c r="B514" t="n">
-        <v>3.52054245505334</v>
+        <v>3.5207027909733</v>
       </c>
     </row>
     <row r="515">
@@ -28955,7 +28974,7 @@
         <v>691</v>
       </c>
       <c r="B515" t="n">
-        <v>3.27894912334341</v>
+        <v>3.2788130405431</v>
       </c>
     </row>
     <row r="516">
@@ -28963,7 +28982,7 @@
         <v>692</v>
       </c>
       <c r="B516" t="n">
-        <v>3.82120490939682</v>
+        <v>3.82121813713962</v>
       </c>
     </row>
     <row r="517">
@@ -28971,7 +28990,7 @@
         <v>693</v>
       </c>
       <c r="B517" t="n">
-        <v>4.25538861505004</v>
+        <v>4.25540121416225</v>
       </c>
     </row>
     <row r="518">
@@ -28979,7 +28998,7 @@
         <v>694</v>
       </c>
       <c r="B518" t="n">
-        <v>4.13854063367239</v>
+        <v>4.13854905171179</v>
       </c>
     </row>
     <row r="519">
@@ -28987,7 +29006,7 @@
         <v>695</v>
       </c>
       <c r="B519" t="n">
-        <v>4.71585098892169</v>
+        <v>4.71601120552469</v>
       </c>
     </row>
     <row r="520">
@@ -28995,7 +29014,7 @@
         <v>696</v>
       </c>
       <c r="B520" t="n">
-        <v>6.31704912534151</v>
+        <v>6.31689926203113</v>
       </c>
     </row>
     <row r="521">
@@ -29003,7 +29022,7 @@
         <v>697</v>
       </c>
       <c r="B521" t="n">
-        <v>7.61790745211667</v>
+        <v>7.61805400752656</v>
       </c>
     </row>
     <row r="522">
@@ -29011,7 +29030,7 @@
         <v>698</v>
       </c>
       <c r="B522" t="n">
-        <v>7.97628010320898</v>
+        <v>7.97627734807576</v>
       </c>
     </row>
     <row r="523">
@@ -29019,7 +29038,7 @@
         <v>699</v>
       </c>
       <c r="B523" t="n">
-        <v>7.82958814864174</v>
+        <v>7.8297381096638</v>
       </c>
     </row>
     <row r="524">
@@ -29027,7 +29046,7 @@
         <v>700</v>
       </c>
       <c r="B524" t="n">
-        <v>8.53821503194604</v>
+        <v>8.53806565223526</v>
       </c>
     </row>
     <row r="525">
@@ -29035,7 +29054,7 @@
         <v>701</v>
       </c>
       <c r="B525" t="n">
-        <v>7.25263098269687</v>
+        <v>7.25275648119058</v>
       </c>
     </row>
     <row r="526">
@@ -29043,7 +29062,7 @@
         <v>702</v>
       </c>
       <c r="B526" t="n">
-        <v>5.10980244350312</v>
+        <v>5.10978566808075</v>
       </c>
     </row>
     <row r="527">
@@ -29051,7 +29070,7 @@
         <v>703</v>
       </c>
       <c r="B527" t="n">
-        <v>4.39064267722467</v>
+        <v>4.3906259018023</v>
       </c>
     </row>
     <row r="528">
@@ -29059,7 +29078,7 @@
         <v>704</v>
       </c>
       <c r="B528" t="n">
-        <v>4.82656369308215</v>
+        <v>4.82654691765978</v>
       </c>
     </row>
     <row r="529">
@@ -29067,7 +29086,7 @@
         <v>705</v>
       </c>
       <c r="B529" t="n">
-        <v>5.7118747302049</v>
+        <v>5.7120070752666</v>
       </c>
     </row>
     <row r="530">
@@ -29075,7 +29094,7 @@
         <v>706</v>
       </c>
       <c r="B530" t="n">
-        <v>5.53624873340129</v>
+        <v>5.53638558960498</v>
       </c>
     </row>
     <row r="531">
@@ -29083,7 +29102,7 @@
         <v>707</v>
       </c>
       <c r="B531" t="n">
-        <v>6.64234239289051</v>
+        <v>6.6423463706687</v>
       </c>
     </row>
     <row r="532">
@@ -29091,7 +29110,7 @@
         <v>708</v>
       </c>
       <c r="B532" t="n">
-        <v>6.21654844252101</v>
+        <v>6.21656032311173</v>
       </c>
     </row>
     <row r="533">
@@ -29099,7 +29118,7 @@
         <v>709</v>
       </c>
       <c r="B533" t="n">
-        <v>6.66320277532669</v>
+        <v>6.66321465591742</v>
       </c>
     </row>
     <row r="534">
@@ -29107,7 +29126,7 @@
         <v>710</v>
       </c>
       <c r="B534" t="n">
-        <v>6.49370913028879</v>
+        <v>6.49372101087951</v>
       </c>
     </row>
     <row r="535">
@@ -29115,7 +29134,7 @@
         <v>711</v>
       </c>
       <c r="B535" t="n">
-        <v>5.33862455297246</v>
+        <v>5.33862350084701</v>
       </c>
     </row>
     <row r="536">
@@ -29123,7 +29142,7 @@
         <v>712</v>
       </c>
       <c r="B536" t="n">
-        <v>5.32346811896723</v>
+        <v>5.32347088348059</v>
       </c>
     </row>
     <row r="537">
@@ -29131,7 +29150,7 @@
         <v>713</v>
       </c>
       <c r="B537" t="n">
-        <v>5.61181347876815</v>
+        <v>5.61153379375881</v>
       </c>
     </row>
     <row r="538">
@@ -29139,7 +29158,7 @@
         <v>714</v>
       </c>
       <c r="B538" t="n">
-        <v>7.114133368902</v>
+        <v>7.11427198944909</v>
       </c>
     </row>
     <row r="539">
@@ -29147,7 +29166,7 @@
         <v>715</v>
       </c>
       <c r="B539" t="n">
-        <v>6.19067420180308</v>
+        <v>6.19068032972065</v>
       </c>
     </row>
     <row r="540">
@@ -29155,7 +29174,7 @@
         <v>716</v>
       </c>
       <c r="B540" t="n">
-        <v>4.94426640292715</v>
+        <v>4.94440030458374</v>
       </c>
     </row>
     <row r="541">
@@ -29163,7 +29182,7 @@
         <v>717</v>
       </c>
       <c r="B541" t="n">
-        <v>5.17462835310324</v>
+        <v>5.17449093373059</v>
       </c>
     </row>
     <row r="542">
@@ -29171,7 +29190,7 @@
         <v>718</v>
       </c>
       <c r="B542" t="n">
-        <v>4.64851717239032</v>
+        <v>4.64852080494764</v>
       </c>
     </row>
     <row r="543">
@@ -29179,7 +29198,7 @@
         <v>719</v>
       </c>
       <c r="B543" t="n">
-        <v>4.59522348819524</v>
+        <v>4.59536757049627</v>
       </c>
     </row>
     <row r="544">
@@ -29187,7 +29206,7 @@
         <v>720</v>
       </c>
       <c r="B544" t="n">
-        <v>3.61744359491322</v>
+        <v>3.61730374276138</v>
       </c>
     </row>
     <row r="545">
@@ -29195,7 +29214,7 @@
         <v>721</v>
       </c>
       <c r="B545" t="n">
-        <v>3.93605228800809</v>
+        <v>3.93604492848576</v>
       </c>
     </row>
     <row r="546">
@@ -29203,7 +29222,7 @@
         <v>722</v>
       </c>
       <c r="B546" t="n">
-        <v>5.41631247632901</v>
+        <v>5.41617734306765</v>
       </c>
     </row>
     <row r="547">
@@ -29211,7 +29230,7 @@
         <v>723</v>
       </c>
       <c r="B547" t="n">
-        <v>5.66725267881001</v>
+        <v>5.66711984064762</v>
       </c>
     </row>
     <row r="548">
@@ -29219,7 +29238,7 @@
         <v>724</v>
       </c>
       <c r="B548" t="n">
-        <v>6.38797456238864</v>
+        <v>6.38797703044671</v>
       </c>
     </row>
     <row r="549">
@@ -29227,7 +29246,7 @@
         <v>725</v>
       </c>
       <c r="B549" t="n">
-        <v>5.05018515814196</v>
+        <v>5.05031131199744</v>
       </c>
     </row>
     <row r="550">
@@ -29235,7 +29254,7 @@
         <v>726</v>
       </c>
       <c r="B550" t="n">
-        <v>5.13501950605869</v>
+        <v>5.1350163030518</v>
       </c>
     </row>
     <row r="551">
@@ -29243,7 +29262,7 @@
         <v>727</v>
       </c>
       <c r="B551" t="n">
-        <v>4.55395092637811</v>
+        <v>4.55382279362179</v>
       </c>
     </row>
     <row r="552">
@@ -29251,7 +29270,7 @@
         <v>728</v>
       </c>
       <c r="B552" t="n">
-        <v>3.95239210428362</v>
+        <v>3.95239301752595</v>
       </c>
     </row>
     <row r="553">
@@ -29259,7 +29278,7 @@
         <v>729</v>
       </c>
       <c r="B553" t="n">
-        <v>3.43108777674762</v>
+        <v>3.43134832415854</v>
       </c>
     </row>
     <row r="554">
@@ -29267,7 +29286,7 @@
         <v>730</v>
       </c>
       <c r="B554" t="n">
-        <v>2.67102142566234</v>
+        <v>2.67101920620522</v>
       </c>
     </row>
     <row r="555">
@@ -29275,7 +29294,7 @@
         <v>731</v>
       </c>
       <c r="B555" t="n">
-        <v>4.04455832596519</v>
+        <v>4.04443242071066</v>
       </c>
     </row>
     <row r="556">
@@ -29283,7 +29302,7 @@
         <v>732</v>
       </c>
       <c r="B556" t="n">
-        <v>4.59525451692871</v>
+        <v>4.59525796853656</v>
       </c>
     </row>
     <row r="557">
@@ -29291,7 +29310,7 @@
         <v>733</v>
       </c>
       <c r="B557" t="n">
-        <v>5.2747923428278</v>
+        <v>5.27492072418508</v>
       </c>
     </row>
     <row r="558">
@@ -29299,7 +29318,7 @@
         <v>734</v>
       </c>
       <c r="B558" t="n">
-        <v>4.88929466856912</v>
+        <v>4.88929400392774</v>
       </c>
     </row>
     <row r="559">
@@ -29307,7 +29326,7 @@
         <v>735</v>
       </c>
       <c r="B559" t="n">
-        <v>5.11366863811129</v>
+        <v>5.11354117746372</v>
       </c>
     </row>
     <row r="560">
@@ -29363,7 +29382,7 @@
         <v>742</v>
       </c>
       <c r="B566" t="n">
-        <v>5.17253621877841</v>
+        <v>5.17240592015617</v>
       </c>
     </row>
     <row r="567">
@@ -29371,7 +29390,7 @@
         <v>743</v>
       </c>
       <c r="B567" t="n">
-        <v>5.82329310762043</v>
+        <v>5.82328934270227</v>
       </c>
     </row>
     <row r="568">
@@ -29379,7 +29398,7 @@
         <v>744</v>
       </c>
       <c r="B568" t="n">
-        <v>6.35368367455949</v>
+        <v>6.35380379410654</v>
       </c>
     </row>
     <row r="569">
@@ -29387,7 +29406,7 @@
         <v>745</v>
       </c>
       <c r="B569" t="n">
-        <v>6.12126368727628</v>
+        <v>6.12126692340764</v>
       </c>
     </row>
     <row r="570">
@@ -29395,7 +29414,7 @@
         <v>746</v>
       </c>
       <c r="B570" t="n">
-        <v>7.02625119866295</v>
+        <v>7.02625443479431</v>
       </c>
     </row>
     <row r="571">
@@ -29403,7 +29422,7 @@
         <v>747</v>
       </c>
       <c r="B571" t="n">
-        <v>6.57696179002076</v>
+        <v>6.57696502615211</v>
       </c>
     </row>
     <row r="572">
@@ -29411,7 +29430,7 @@
         <v>748</v>
       </c>
       <c r="B572" t="n">
-        <v>6.32186726854267</v>
+        <v>6.32187613988282</v>
       </c>
     </row>
     <row r="573">
@@ -29419,7 +29438,7 @@
         <v>749</v>
       </c>
       <c r="B573" t="n">
-        <v>6.16279359916998</v>
+        <v>6.16279759895884</v>
       </c>
     </row>
     <row r="574">
@@ -29427,7 +29446,7 @@
         <v>750</v>
       </c>
       <c r="B574" t="n">
-        <v>5.51581473304882</v>
+        <v>5.51569484837247</v>
       </c>
     </row>
     <row r="575">
@@ -29435,7 +29454,7 @@
         <v>751</v>
       </c>
       <c r="B575" t="n">
-        <v>6.13148941812217</v>
+        <v>6.13148641686151</v>
       </c>
     </row>
     <row r="576">
@@ -29443,7 +29462,7 @@
         <v>752</v>
       </c>
       <c r="B576" t="n">
-        <v>6.0854314437269</v>
+        <v>6.08542844246624</v>
       </c>
     </row>
     <row r="577">
@@ -29451,7 +29470,7 @@
         <v>753</v>
       </c>
       <c r="B577" t="n">
-        <v>7.09332255025252</v>
+        <v>7.09331954899186</v>
       </c>
     </row>
     <row r="578">
@@ -29459,7 +29478,7 @@
         <v>754</v>
       </c>
       <c r="B578" t="n">
-        <v>7.72493148690624</v>
+        <v>7.72505314905903</v>
       </c>
     </row>
     <row r="579">
@@ -29467,7 +29486,7 @@
         <v>755</v>
       </c>
       <c r="B579" t="n">
-        <v>7.72616388185229</v>
+        <v>7.72604735206207</v>
       </c>
     </row>
     <row r="580">
@@ -29475,7 +29494,7 @@
         <v>756</v>
       </c>
       <c r="B580" t="n">
-        <v>8.52152019327266</v>
+        <v>8.52163801632479</v>
       </c>
     </row>
     <row r="581">
@@ -29483,7 +29502,7 @@
         <v>757</v>
       </c>
       <c r="B581" t="n">
-        <v>9.08353885186784</v>
+        <v>9.08353981432698</v>
       </c>
     </row>
     <row r="582">
@@ -29491,7 +29510,7 @@
         <v>758</v>
       </c>
       <c r="B582" t="n">
-        <v>9.34305561202133</v>
+        <v>9.34305657448048</v>
       </c>
     </row>
     <row r="583">
@@ -29499,7 +29518,7 @@
         <v>759</v>
       </c>
       <c r="B583" t="n">
-        <v>8.1736178650093</v>
+        <v>8.17361882746845</v>
       </c>
     </row>
     <row r="584">
@@ -29507,7 +29526,7 @@
         <v>760</v>
       </c>
       <c r="B584" t="n">
-        <v>8.45718100956648</v>
+        <v>8.29884276187849</v>
       </c>
     </row>
     <row r="585">
@@ -29515,7 +29534,7 @@
         <v>761</v>
       </c>
       <c r="B585" t="n">
-        <v>7.18470756960995</v>
+        <v>6.83360100523019</v>
       </c>
     </row>
     <row r="586">
@@ -29523,7 +29542,7 @@
         <v>762</v>
       </c>
       <c r="B586" t="n">
-        <v>6.83878480675427</v>
+        <v>6.60093314585651</v>
       </c>
     </row>
     <row r="587">
@@ -29531,7 +29550,7 @@
         <v>763</v>
       </c>
       <c r="B587" t="n">
-        <v>6.69183296320281</v>
+        <v>6.60972595886501</v>
       </c>
     </row>
     <row r="588">
@@ -29539,7 +29558,7 @@
         <v>764</v>
       </c>
       <c r="B588" t="n">
-        <v>6.78055282531383</v>
+        <v>6.9239849855808</v>
       </c>
     </row>
     <row r="589">
@@ -29547,7 +29566,7 @@
         <v>765</v>
       </c>
       <c r="B589" t="n">
-        <v>6.68617272143791</v>
+        <v>6.96954660214022</v>
       </c>
     </row>
     <row r="590">
@@ -29555,7 +29574,7 @@
         <v>766</v>
       </c>
       <c r="B590" t="n">
-        <v>4.37156093753537</v>
+        <v>4.70069675758305</v>
       </c>
     </row>
     <row r="591">
@@ -29563,7 +29582,7 @@
         <v>767</v>
       </c>
       <c r="B591" t="n">
-        <v>4.19189752455004</v>
+        <v>4.61871515079772</v>
       </c>
     </row>
     <row r="592">
@@ -29571,7 +29590,7 @@
         <v>768</v>
       </c>
       <c r="B592" t="n">
-        <v>4.02703138356771</v>
+        <v>4.31340187158681</v>
       </c>
     </row>
     <row r="593">
@@ -29579,7 +29598,7 @@
         <v>769</v>
       </c>
       <c r="B593" t="n">
-        <v>3.59911794291949</v>
+        <v>3.73025850582438</v>
       </c>
     </row>
     <row r="594">
@@ -29587,7 +29606,7 @@
         <v>770</v>
       </c>
       <c r="B594" t="n">
-        <v>3.06463502888164</v>
+        <v>2.82365278887611</v>
       </c>
     </row>
     <row r="595">
@@ -29595,7 +29614,7 @@
         <v>771</v>
       </c>
       <c r="B595" t="n">
-        <v>4.35801971045996</v>
+        <v>4.47659428907537</v>
       </c>
     </row>
     <row r="596">
@@ -29603,7 +29622,7 @@
         <v>772</v>
       </c>
       <c r="B596" t="n">
-        <v>5.11325883633398</v>
+        <v>4.4672557344603</v>
       </c>
     </row>
     <row r="597">
@@ -29611,7 +29630,7 @@
         <v>773</v>
       </c>
       <c r="B597" t="n">
-        <v>5.71182797865483</v>
+        <v>5.11513081328985</v>
       </c>
     </row>
     <row r="598">
@@ -29619,7 +29638,7 @@
         <v>774</v>
       </c>
       <c r="B598" t="n">
-        <v>5.75148399475793</v>
+        <v>5.1266545706253</v>
       </c>
     </row>
     <row r="599">
@@ -29627,7 +29646,7 @@
         <v>775</v>
       </c>
       <c r="B599" t="n">
-        <v>4.76946336587557</v>
+        <v>4.64734921025491</v>
       </c>
     </row>
     <row r="600">
@@ -29635,7 +29654,7 @@
         <v>776</v>
       </c>
       <c r="B600" t="n">
-        <v>3.8445973605067</v>
+        <v>4.28346709146316</v>
       </c>
     </row>
     <row r="601">
@@ -29643,7 +29662,7 @@
         <v>777</v>
       </c>
       <c r="B601" t="n">
-        <v>3.36581488122827</v>
+        <v>3.36764078744801</v>
       </c>
     </row>
     <row r="602">
@@ -29651,7 +29670,7 @@
         <v>778</v>
       </c>
       <c r="B602" t="n">
-        <v>2.79303097220743</v>
+        <v>3.77156558170259</v>
       </c>
     </row>
     <row r="603">
@@ -29659,7 +29678,7 @@
         <v>779</v>
       </c>
       <c r="B603" t="n">
-        <v>3.33115370805155</v>
+        <v>4.30551108838332</v>
       </c>
     </row>
     <row r="604">
@@ -29667,7 +29686,7 @@
         <v>780</v>
       </c>
       <c r="B604" t="n">
-        <v>3.67802772755952</v>
+        <v>4.62857878489617</v>
       </c>
     </row>
     <row r="605">
@@ -29675,7 +29694,7 @@
         <v>781</v>
       </c>
       <c r="B605" t="n">
-        <v>4.90083647314675</v>
+        <v>5.20222228285918</v>
       </c>
     </row>
     <row r="606">
@@ -29683,7 +29702,7 @@
         <v>782</v>
       </c>
       <c r="B606" t="n">
-        <v>6.59580017873681</v>
+        <v>6.14847560062373</v>
       </c>
     </row>
     <row r="607">
@@ -29691,7 +29710,7 @@
         <v>783</v>
       </c>
       <c r="B607" t="n">
-        <v>8.02874044492948</v>
+        <v>7.64118083121574</v>
       </c>
     </row>
     <row r="608">
@@ -29699,7 +29718,7 @@
         <v>784</v>
       </c>
       <c r="B608" t="n">
-        <v>8.10487144943077</v>
+        <v>7.62382486642262</v>
       </c>
     </row>
     <row r="609">
@@ -29707,7 +29726,7 @@
         <v>785</v>
       </c>
       <c r="B609" t="n">
-        <v>7.82402162453281</v>
+        <v>7.39153273301015</v>
       </c>
     </row>
     <row r="610">
@@ -29715,7 +29734,7 @@
         <v>786</v>
       </c>
       <c r="B610" t="n">
-        <v>8.0539004899692</v>
+        <v>7.69397321960051</v>
       </c>
     </row>
     <row r="611">
@@ -29723,7 +29742,7 @@
         <v>787</v>
       </c>
       <c r="B611" t="n">
-        <v>8.54151308468214</v>
+        <v>8.3229055736543</v>
       </c>
     </row>
     <row r="612">
@@ -29731,7 +29750,7 @@
         <v>788</v>
       </c>
       <c r="B612" t="n">
-        <v>8.09564944261827</v>
+        <v>8.20540398901679</v>
       </c>
     </row>
     <row r="613">
@@ -29739,7 +29758,7 @@
         <v>789</v>
       </c>
       <c r="B613" t="n">
-        <v>6.38188614246898</v>
+        <v>6.37782596686285</v>
       </c>
     </row>
     <row r="614">
@@ -29747,7 +29766,7 @@
         <v>790</v>
       </c>
       <c r="B614" t="n">
-        <v>6.96969174129896</v>
+        <v>6.94297487240544</v>
       </c>
     </row>
     <row r="615">
@@ -29755,7 +29774,7 @@
         <v>791</v>
       </c>
       <c r="B615" t="n">
-        <v>7.62668789403414</v>
+        <v>7.6227503079788</v>
       </c>
     </row>
     <row r="616">
@@ -29763,7 +29782,7 @@
         <v>792</v>
       </c>
       <c r="B616" t="n">
-        <v>7.57635053275681</v>
+        <v>7.57150078184875</v>
       </c>
     </row>
     <row r="617">
@@ -29771,7 +29790,7 @@
         <v>793</v>
       </c>
       <c r="B617" t="n">
-        <v>7.48060009993238</v>
+        <v>7.40989339924017</v>
       </c>
     </row>
     <row r="618">
@@ -29779,7 +29798,7 @@
         <v>794</v>
       </c>
       <c r="B618" t="n">
-        <v>7.09223896066869</v>
+        <v>7.11550672266887</v>
       </c>
     </row>
     <row r="619">
@@ -29787,7 +29806,7 @@
         <v>795</v>
       </c>
       <c r="B619" t="n">
-        <v>8.60766864447173</v>
+        <v>8.62049264973973</v>
       </c>
     </row>
     <row r="620">
@@ -29795,7 +29814,7 @@
         <v>796</v>
       </c>
       <c r="B620" t="n">
-        <v>7.86792196419209</v>
+        <v>7.90427270958251</v>
       </c>
     </row>
     <row r="621">
@@ -29803,7 +29822,7 @@
         <v>797</v>
       </c>
       <c r="B621" t="n">
-        <v>7.65266141536246</v>
+        <v>7.66676567294967</v>
       </c>
     </row>
     <row r="622">
@@ -29811,7 +29830,7 @@
         <v>798</v>
       </c>
       <c r="B622" t="n">
-        <v>11.0543334138077</v>
+        <v>11.0628186335147</v>
       </c>
     </row>
     <row r="623">
@@ -29819,7 +29838,7 @@
         <v>799</v>
       </c>
       <c r="B623" t="n">
-        <v>17.2520021603626</v>
+        <v>17.3118468086688</v>
       </c>
     </row>
     <row r="624">
@@ -29827,7 +29846,7 @@
         <v>800</v>
       </c>
       <c r="B624" t="n">
-        <v>21.4761858256085</v>
+        <v>21.4341197074796</v>
       </c>
     </row>
     <row r="625">
@@ -29835,7 +29854,7 @@
         <v>801</v>
       </c>
       <c r="B625" t="n">
-        <v>23.3722058868</v>
+        <v>23.3323223353075</v>
       </c>
     </row>
     <row r="626">
@@ -29843,7 +29862,7 @@
         <v>802</v>
       </c>
       <c r="B626" t="n">
-        <v>25.4634224952897</v>
+        <v>25.4009186238475</v>
       </c>
     </row>
     <row r="627">
@@ -29851,7 +29870,7 @@
         <v>803</v>
       </c>
       <c r="B627" t="n">
-        <v>27.1058440418866</v>
+        <v>27.0789207492012</v>
       </c>
     </row>
     <row r="628">
@@ -29859,7 +29878,7 @@
         <v>804</v>
       </c>
       <c r="B628" t="n">
-        <v>24.240881199124</v>
+        <v>24.2064002519115</v>
       </c>
     </row>
     <row r="629">
@@ -29867,7 +29886,7 @@
         <v>805</v>
       </c>
       <c r="B629" t="n">
-        <v>18.908618422074</v>
+        <v>18.830744258507</v>
       </c>
     </row>
     <row r="630">
@@ -29875,7 +29894,7 @@
         <v>806</v>
       </c>
       <c r="B630" t="n">
-        <v>14.8274704090609</v>
+        <v>14.8761161920464</v>
       </c>
     </row>
     <row r="631">
@@ -29883,7 +29902,7 @@
         <v>807</v>
       </c>
       <c r="B631" t="n">
-        <v>11.7837788311551</v>
+        <v>11.8041530494256</v>
       </c>
     </row>
     <row r="632">
@@ -29891,7 +29910,7 @@
         <v>808</v>
       </c>
       <c r="B632" t="n">
-        <v>10.2869632303103</v>
+        <v>10.3573415759596</v>
       </c>
     </row>
     <row r="633">
@@ -29899,7 +29918,7 @@
         <v>809</v>
       </c>
       <c r="B633" t="n">
-        <v>9.22881016453106</v>
+        <v>9.24847770496667</v>
       </c>
     </row>
     <row r="634">
@@ -29907,7 +29926,7 @@
         <v>810</v>
       </c>
       <c r="B634" t="n">
-        <v>8.14152744629001</v>
+        <v>8.16585076928013</v>
       </c>
     </row>
     <row r="635">
@@ -29915,7 +29934,7 @@
         <v>811</v>
       </c>
       <c r="B635" t="n">
-        <v>8.28776337509871</v>
+        <v>8.35311985351881</v>
       </c>
     </row>
     <row r="636">
@@ -29923,7 +29942,7 @@
         <v>812</v>
       </c>
       <c r="B636" t="n">
-        <v>9.40898378227952</v>
+        <v>9.35373567249406</v>
       </c>
     </row>
     <row r="637">
@@ -29931,7 +29950,7 @@
         <v>813</v>
       </c>
       <c r="B637" t="n">
-        <v>9.57458605542654</v>
+        <v>9.52847167963953</v>
       </c>
     </row>
     <row r="638">
@@ -29939,7 +29958,7 @@
         <v>814</v>
       </c>
       <c r="B638" t="n">
-        <v>10.2072822192121</v>
+        <v>10.1057338794371</v>
       </c>
     </row>
     <row r="639">
@@ -29947,7 +29966,7 @@
         <v>815</v>
       </c>
       <c r="B639" t="n">
-        <v>9.75430094333237</v>
+        <v>9.74231456782645</v>
       </c>
     </row>
     <row r="640">
@@ -29955,7 +29974,7 @@
         <v>816</v>
       </c>
       <c r="B640" t="n">
-        <v>9.1362996457883</v>
+        <v>9.10655116387751</v>
       </c>
     </row>
     <row r="641">
@@ -29963,7 +29982,7 @@
         <v>817</v>
       </c>
       <c r="B641" t="n">
-        <v>7.18011922069833</v>
+        <v>7.10363950547572</v>
       </c>
     </row>
     <row r="642">
@@ -29971,7 +29990,7 @@
         <v>818</v>
       </c>
       <c r="B642" t="n">
-        <v>6.15920015633812</v>
+        <v>6.24255685499886</v>
       </c>
     </row>
     <row r="643">
@@ -29979,7 +29998,7 @@
         <v>819</v>
       </c>
       <c r="B643" t="n">
-        <v>5.79967234788988</v>
+        <v>5.83516692208002</v>
       </c>
     </row>
     <row r="644">
@@ -29987,7 +30006,7 @@
         <v>820</v>
       </c>
       <c r="B644" t="n">
-        <v>4.85512083024326</v>
+        <v>4.97552334268216</v>
       </c>
     </row>
     <row r="645">
@@ -29995,7 +30014,7 @@
         <v>821</v>
       </c>
       <c r="B645" t="n">
-        <v>4.63263895172727</v>
+        <v>4.65227654662322</v>
       </c>
     </row>
     <row r="646">
@@ -30003,7 +30022,7 @@
         <v>822</v>
       </c>
       <c r="B646" t="n">
-        <v>5.10683575521554</v>
+        <v>5.13579081649996</v>
       </c>
     </row>
     <row r="647">
@@ -30011,7 +30030,7 @@
         <v>823</v>
       </c>
       <c r="B647" t="n">
-        <v>4.98154264756946</v>
+        <v>5.05910351921776</v>
       </c>
     </row>
     <row r="648">
@@ -30019,7 +30038,7 @@
         <v>824</v>
       </c>
       <c r="B648" t="n">
-        <v>4.85121519643056</v>
+        <v>4.7751219896072</v>
       </c>
     </row>
     <row r="649">
@@ -30027,7 +30046,7 @@
         <v>825</v>
       </c>
       <c r="B649" t="n">
-        <v>5.10834097244304</v>
+        <v>5.06145242629722</v>
       </c>
     </row>
     <row r="650">
@@ -30035,7 +30054,7 @@
         <v>826</v>
       </c>
       <c r="B650" t="n">
-        <v>4.6819397728506</v>
+        <v>4.54389626343278</v>
       </c>
     </row>
     <row r="651">
@@ -30043,7 +30062,7 @@
         <v>827</v>
       </c>
       <c r="B651" t="n">
-        <v>3.1658035548767</v>
+        <v>3.16452891786293</v>
       </c>
     </row>
     <row r="652">
@@ -30051,7 +30070,7 @@
         <v>828</v>
       </c>
       <c r="B652" t="n">
-        <v>3.87919150021881</v>
+        <v>3.8425070188742</v>
       </c>
     </row>
     <row r="653">
@@ -30059,7 +30078,7 @@
         <v>829</v>
       </c>
       <c r="B653" t="n">
-        <v>3.75679930828366</v>
+        <v>3.6689772505061</v>
       </c>
     </row>
     <row r="654">
@@ -30067,7 +30086,7 @@
         <v>830</v>
       </c>
       <c r="B654" t="n">
-        <v>2.8162189802377</v>
+        <v>2.89349037465196</v>
       </c>
     </row>
     <row r="655">
@@ -30075,7 +30094,7 @@
         <v>831</v>
       </c>
       <c r="B655" t="n">
-        <v>3.12048683127856</v>
+        <v>3.13481439460129</v>
       </c>
     </row>
     <row r="656">
@@ -30083,7 +30102,7 @@
         <v>832</v>
       </c>
       <c r="B656" t="n">
-        <v>3.88079761704318</v>
+        <v>4.01742923594886</v>
       </c>
     </row>
     <row r="657">
@@ -30091,7 +30110,7 @@
         <v>833</v>
       </c>
       <c r="B657" t="n">
-        <v>5.00392109607575</v>
+        <v>4.98875030593052</v>
       </c>
     </row>
     <row r="658">
@@ -30099,7 +30118,7 @@
         <v>834</v>
       </c>
       <c r="B658" t="n">
-        <v>3.77304785640911</v>
+        <v>3.78631325479604</v>
       </c>
     </row>
     <row r="659">
@@ -30107,7 +30126,7 @@
         <v>835</v>
       </c>
       <c r="B659" t="n">
-        <v>4.01904319803632</v>
+        <v>4.08459885274018</v>
       </c>
     </row>
     <row r="660">
@@ -30115,7 +30134,7 @@
         <v>836</v>
       </c>
       <c r="B660" t="n">
-        <v>3.97530061045825</v>
+        <v>3.88478923861108</v>
       </c>
     </row>
     <row r="661">
@@ -30123,7 +30142,7 @@
         <v>837</v>
       </c>
       <c r="B661" t="n">
-        <v>2.86252651856642</v>
+        <v>2.82528454897968</v>
       </c>
     </row>
     <row r="662">
@@ -30131,7 +30150,7 @@
         <v>838</v>
       </c>
       <c r="B662" t="n">
-        <v>2.74322041972922</v>
+        <v>2.57917190443129</v>
       </c>
     </row>
     <row r="663">
@@ -30139,7 +30158,7 @@
         <v>839</v>
       </c>
       <c r="B663" t="n">
-        <v>3.04623907754423</v>
+        <v>3.08483198077779</v>
       </c>
     </row>
     <row r="664">
@@ -30147,7 +30166,7 @@
         <v>840</v>
       </c>
       <c r="B664" t="n">
-        <v>3.91491580761926</v>
+        <v>3.91054772707692</v>
       </c>
     </row>
     <row r="665">
@@ -30155,7 +30174,7 @@
         <v>841</v>
       </c>
       <c r="B665" t="n">
-        <v>4.84031386933205</v>
+        <v>4.75224274425995</v>
       </c>
     </row>
     <row r="666">
@@ -30163,7 +30182,7 @@
         <v>842</v>
       </c>
       <c r="B666" t="n">
-        <v>5.95828200980858</v>
+        <v>6.04487114619246</v>
       </c>
     </row>
     <row r="667">
@@ -30171,7 +30190,7 @@
         <v>843</v>
       </c>
       <c r="B667" t="n">
-        <v>6.12342072820807</v>
+        <v>6.16394974369733</v>
       </c>
     </row>
     <row r="668">
@@ -30179,7 +30198,7 @@
         <v>844</v>
       </c>
       <c r="B668" t="n">
-        <v>5.56809806978278</v>
+        <v>5.73512166749104</v>
       </c>
     </row>
     <row r="669">
@@ -30187,7 +30206,7 @@
         <v>845</v>
       </c>
       <c r="B669" t="n">
-        <v>5.66847218572376</v>
+        <v>5.63145176715916</v>
       </c>
     </row>
     <row r="670">
@@ -30195,7 +30214,7 @@
         <v>846</v>
       </c>
       <c r="B670" t="n">
-        <v>5.65368604745359</v>
+        <v>5.65468334438414</v>
       </c>
     </row>
     <row r="671">
@@ -30203,7 +30222,7 @@
         <v>847</v>
       </c>
       <c r="B671" t="n">
-        <v>4.88207771125569</v>
+        <v>4.96708347425516</v>
       </c>
     </row>
     <row r="672">
@@ -30211,7 +30230,7 @@
         <v>848</v>
       </c>
       <c r="B672" t="n">
-        <v>5.33877042377438</v>
+        <v>5.25074610446152</v>
       </c>
     </row>
     <row r="673">
@@ -30219,7 +30238,7 @@
         <v>849</v>
       </c>
       <c r="B673" t="n">
-        <v>6.42759551764391</v>
+        <v>6.38477416890089</v>
       </c>
     </row>
     <row r="674">
@@ -30227,7 +30246,7 @@
         <v>850</v>
       </c>
       <c r="B674" t="n">
-        <v>6.50344284409467</v>
+        <v>6.36739159579366</v>
       </c>
     </row>
     <row r="675">
@@ -30235,7 +30254,7 @@
         <v>851</v>
       </c>
       <c r="B675" t="n">
-        <v>5.72332007767936</v>
+        <v>5.81122441435314</v>
       </c>
     </row>
     <row r="676">
@@ -30243,7 +30262,7 @@
         <v>852</v>
       </c>
       <c r="B676" t="n">
-        <v>5.24863622914737</v>
+        <v>5.31370585514558</v>
       </c>
     </row>
     <row r="677">
@@ -30251,7 +30270,7 @@
         <v>853</v>
       </c>
       <c r="B677" t="n">
-        <v>7.03010541876447</v>
+        <v>6.98538566911566</v>
       </c>
     </row>
     <row r="678">
@@ -30259,7 +30278,7 @@
         <v>854</v>
       </c>
       <c r="B678" t="n">
-        <v>5.89392460995999</v>
+        <v>6.01788114264709</v>
       </c>
     </row>
     <row r="679">
@@ -30267,7 +30286,15 @@
         <v>855</v>
       </c>
       <c r="B679" t="n">
-        <v>5.2112575174178</v>
+        <v>5.28571310824887</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>856</v>
+      </c>
+      <c r="B680" t="n">
+        <v>6.5106660160122</v>
       </c>
     </row>
   </sheetData>
@@ -30287,15 +30314,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30303,7 +30330,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30311,7 +30338,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30319,7 +30346,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30327,7 +30354,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30335,7 +30362,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30343,7 +30370,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30351,7 +30378,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30359,7 +30386,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30367,7 +30394,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30375,7 +30402,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30383,7 +30410,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30391,7 +30418,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30399,7 +30426,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30407,7 +30434,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30415,7 +30442,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30423,7 +30450,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30431,7 +30458,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30439,7 +30466,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30447,7 +30474,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30455,7 +30482,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30463,7 +30490,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30471,7 +30498,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30479,7 +30506,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30487,7 +30514,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30495,7 +30522,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30503,7 +30530,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30511,7 +30538,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30519,7 +30546,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -30527,7 +30554,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -30535,7 +30562,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -30543,7 +30570,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -30551,7 +30578,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -30559,7 +30586,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -30567,7 +30594,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -30575,7 +30602,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -30583,7 +30610,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -30591,7 +30618,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -30599,7 +30626,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -30607,7 +30634,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -30615,7 +30642,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -30623,7 +30650,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -30631,7 +30658,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -30639,7 +30666,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -30647,7 +30674,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -30655,7 +30682,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -30663,7 +30690,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -30671,7 +30698,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -30679,7 +30706,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -30687,7 +30714,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -30695,7 +30722,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -30703,7 +30730,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -30711,7 +30738,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -30719,7 +30746,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -30727,7 +30754,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -30735,7 +30762,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -30743,7 +30770,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -30751,7 +30778,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -30759,7 +30786,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -30767,7 +30794,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -30775,7 +30802,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -30783,7 +30810,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -30791,7 +30818,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -30799,7 +30826,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -30807,7 +30834,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -30815,7 +30842,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -30823,7 +30850,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -30831,7 +30858,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -30839,7 +30866,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -30847,7 +30874,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -30855,7 +30882,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -30863,7 +30890,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -30871,7 +30898,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -30879,7 +30906,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -30887,7 +30914,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -30895,7 +30922,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -30903,7 +30930,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -30911,7 +30938,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -30919,7 +30946,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -30927,7 +30954,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -30935,7 +30962,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -30943,7 +30970,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -30951,7 +30978,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -30959,7 +30986,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -30967,7 +30994,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -30975,7 +31002,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -30983,7 +31010,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -30991,7 +31018,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -30999,7 +31026,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31007,7 +31034,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31015,7 +31042,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31023,7 +31050,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31031,7 +31058,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31039,7 +31066,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31047,7 +31074,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31055,7 +31082,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31063,7 +31090,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31071,7 +31098,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31079,7 +31106,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31087,7 +31114,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31095,7 +31122,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31103,7 +31130,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31111,7 +31138,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31119,7 +31146,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31127,7 +31154,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31135,7 +31162,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31143,7 +31170,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31151,7 +31178,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31159,7 +31186,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31167,7 +31194,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31175,7 +31202,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31183,7 +31210,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31191,7 +31218,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31199,7 +31226,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31207,7 +31234,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31215,7 +31242,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31223,7 +31250,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31231,7 +31258,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31239,7 +31266,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31247,7 +31274,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31255,7 +31282,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31263,7 +31290,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31271,7 +31298,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31279,7 +31306,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31287,7 +31314,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31295,7 +31322,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31303,7 +31330,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31311,7 +31338,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31319,7 +31346,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31327,7 +31354,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31335,7 +31362,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31343,7 +31370,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31351,7 +31378,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31359,7 +31386,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31367,7 +31394,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31375,7 +31402,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31383,7 +31410,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31391,7 +31418,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31399,7 +31426,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31407,7 +31434,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31415,7 +31442,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31423,7 +31450,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31431,7 +31458,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31439,7 +31466,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31447,7 +31474,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31455,7 +31482,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31463,7 +31490,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31471,7 +31498,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31479,7 +31506,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31487,7 +31514,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31495,7 +31522,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31503,7 +31530,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31511,7 +31538,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31519,7 +31546,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -31527,7 +31554,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -31535,7 +31562,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -31543,7 +31570,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -31551,7 +31578,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -31559,7 +31586,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -31567,7 +31594,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -31575,7 +31602,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -31583,7 +31610,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -31591,7 +31618,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -31599,7 +31626,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -31607,7 +31634,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -31615,7 +31642,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -31623,7 +31650,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -31631,7 +31658,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -31639,7 +31666,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -31647,7 +31674,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -31655,7 +31682,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -31663,7 +31690,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -31671,7 +31698,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -31679,7 +31706,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -31687,7 +31714,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -31695,7 +31722,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -31703,7 +31730,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -31711,7 +31738,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -31719,7 +31746,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -31727,7 +31754,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -31735,7 +31762,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -31743,7 +31770,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -31751,7 +31778,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -31759,7 +31786,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -31767,7 +31794,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -31775,7 +31802,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -36495,10 +36522,18 @@
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>1049</v>
+        <v>857</v>
       </c>
       <c r="B777" t="n">
-        <v>2.83941176470588</v>
+        <v>2.83789473684211</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B778" t="n">
+        <v>2.66894736842105</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="1052">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -2596,6 +2596,9 @@
     <t xml:space="preserve">Feb 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Mar 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -3172,7 +3175,7 @@
     <t xml:space="preserve">Jun 1968</t>
   </si>
   <si>
-    <t xml:space="preserve">Mar 2025</t>
+    <t xml:space="preserve">Apr 2025</t>
   </si>
 </sst>
 </file>
@@ -18502,6 +18505,14 @@
         <v>20994.5</v>
       </c>
     </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>858</v>
+      </c>
+      <c r="B592" t="n">
+        <v>20961.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18522,7 +18533,7 @@
         <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2">
@@ -23243,6 +23254,14 @@
       </c>
       <c r="B591" t="n">
         <v>6.6</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>858</v>
+      </c>
+      <c r="B592" t="n">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -23265,7 +23284,7 @@
         <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2">
@@ -24838,7 +24857,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B198"/>
     </row>
@@ -24862,12 +24881,12 @@
         <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -24875,7 +24894,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -24883,7 +24902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -24891,7 +24910,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -24899,7 +24918,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -24907,7 +24926,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -24915,7 +24934,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -24923,7 +24942,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -24931,7 +24950,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -24939,7 +24958,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -24947,7 +24966,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -24955,7 +24974,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -24963,7 +24982,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -24971,7 +24990,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -24979,7 +24998,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -24987,7 +25006,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -24995,7 +25014,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -25003,7 +25022,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -25011,7 +25030,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25019,7 +25038,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25027,7 +25046,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25035,7 +25054,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25043,7 +25062,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25051,7 +25070,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25059,7 +25078,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25067,7 +25086,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25075,7 +25094,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25083,7 +25102,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25091,7 +25110,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25099,7 +25118,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25107,7 +25126,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25115,7 +25134,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25123,7 +25142,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25131,7 +25150,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25139,7 +25158,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25147,7 +25166,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25155,7 +25174,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25163,7 +25182,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25171,7 +25190,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25179,7 +25198,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25187,7 +25206,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25195,7 +25214,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25203,7 +25222,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25211,7 +25230,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25219,7 +25238,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25227,7 +25246,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25235,7 +25254,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25243,7 +25262,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25251,7 +25270,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25259,7 +25278,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25267,7 +25286,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25275,7 +25294,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25283,7 +25302,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25291,7 +25310,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25299,7 +25318,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25307,7 +25326,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25315,7 +25334,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25323,7 +25342,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25331,7 +25350,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25339,7 +25358,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25347,7 +25366,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25355,7 +25374,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25363,7 +25382,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25371,7 +25390,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25379,7 +25398,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25387,7 +25406,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25395,7 +25414,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25403,7 +25422,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25411,7 +25430,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25419,7 +25438,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25427,7 +25446,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25435,7 +25454,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25443,7 +25462,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25451,7 +25470,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25459,7 +25478,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25467,7 +25486,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25475,7 +25494,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25483,7 +25502,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25491,7 +25510,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25499,7 +25518,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25507,7 +25526,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25515,7 +25534,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25523,7 +25542,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25531,7 +25550,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25539,7 +25558,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25547,7 +25566,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25555,7 +25574,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25563,7 +25582,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25571,7 +25590,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25579,7 +25598,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -30295,6 +30314,14 @@
       </c>
       <c r="B680" t="n">
         <v>6.5106660160122</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>857</v>
+      </c>
+      <c r="B681" t="n">
+        <v>6.9225155203401</v>
       </c>
     </row>
   </sheetData>
@@ -30314,15 +30341,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30330,7 +30357,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30338,7 +30365,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30346,7 +30373,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30354,7 +30381,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30362,7 +30389,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30370,7 +30397,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30378,7 +30405,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30386,7 +30413,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30394,7 +30421,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30402,7 +30429,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30410,7 +30437,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30418,7 +30445,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30426,7 +30453,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30434,7 +30461,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30442,7 +30469,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30450,7 +30477,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30458,7 +30485,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30466,7 +30493,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30474,7 +30501,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30482,7 +30509,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30490,7 +30517,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30498,7 +30525,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30506,7 +30533,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30514,7 +30541,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30522,7 +30549,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30530,7 +30557,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30538,7 +30565,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30546,7 +30573,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -30554,7 +30581,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -30562,7 +30589,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -30570,7 +30597,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -30578,7 +30605,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -30586,7 +30613,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -30594,7 +30621,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -30602,7 +30629,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -30610,7 +30637,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -30618,7 +30645,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -30626,7 +30653,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -30634,7 +30661,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -30642,7 +30669,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -30650,7 +30677,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -30658,7 +30685,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -30666,7 +30693,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -30674,7 +30701,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -30682,7 +30709,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -30690,7 +30717,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -30698,7 +30725,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -30706,7 +30733,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -30714,7 +30741,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -30722,7 +30749,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -30730,7 +30757,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -30738,7 +30765,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -30746,7 +30773,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -30754,7 +30781,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -30762,7 +30789,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -30770,7 +30797,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -30778,7 +30805,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -30786,7 +30813,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -30794,7 +30821,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -30802,7 +30829,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -30810,7 +30837,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -30818,7 +30845,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -30826,7 +30853,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -30834,7 +30861,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -30842,7 +30869,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -30850,7 +30877,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -30858,7 +30885,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -30866,7 +30893,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -30874,7 +30901,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -30882,7 +30909,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -30890,7 +30917,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -30898,7 +30925,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -30906,7 +30933,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -30914,7 +30941,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -30922,7 +30949,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -30930,7 +30957,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -30938,7 +30965,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -30946,7 +30973,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -30954,7 +30981,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -30962,7 +30989,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -30970,7 +30997,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -30978,7 +31005,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -30986,7 +31013,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -30994,7 +31021,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -31002,7 +31029,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -31010,7 +31037,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -31018,7 +31045,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -31026,7 +31053,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31034,7 +31061,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31042,7 +31069,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31050,7 +31077,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31058,7 +31085,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31066,7 +31093,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31074,7 +31101,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31082,7 +31109,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31090,7 +31117,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31098,7 +31125,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31106,7 +31133,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31114,7 +31141,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31122,7 +31149,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31130,7 +31157,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31138,7 +31165,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31146,7 +31173,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31154,7 +31181,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31162,7 +31189,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31170,7 +31197,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31178,7 +31205,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31186,7 +31213,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31194,7 +31221,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31202,7 +31229,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31210,7 +31237,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31218,7 +31245,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31226,7 +31253,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31234,7 +31261,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31242,7 +31269,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31250,7 +31277,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31258,7 +31285,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31266,7 +31293,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31274,7 +31301,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31282,7 +31309,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31290,7 +31317,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31298,7 +31325,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31306,7 +31333,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31314,7 +31341,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31322,7 +31349,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31330,7 +31357,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31338,7 +31365,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31346,7 +31373,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31354,7 +31381,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31362,7 +31389,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31370,7 +31397,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31378,7 +31405,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31386,7 +31413,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31394,7 +31421,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31402,7 +31429,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31410,7 +31437,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31418,7 +31445,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31426,7 +31453,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31434,7 +31461,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31442,7 +31469,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31450,7 +31477,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31458,7 +31485,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31466,7 +31493,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31474,7 +31501,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31482,7 +31509,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31490,7 +31517,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31498,7 +31525,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31506,7 +31533,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31514,7 +31541,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31522,7 +31549,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31530,7 +31557,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31538,7 +31565,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31546,7 +31573,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -31554,7 +31581,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -31562,7 +31589,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -31570,7 +31597,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -31578,7 +31605,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -31586,7 +31613,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -31594,7 +31621,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -31602,7 +31629,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -31610,7 +31637,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -31618,7 +31645,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -31626,7 +31653,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -31634,7 +31661,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -31642,7 +31669,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -31650,7 +31677,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -31658,7 +31685,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -31666,7 +31693,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -31674,7 +31701,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -31682,7 +31709,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -31690,7 +31717,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -31698,7 +31725,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -31706,7 +31733,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -31714,7 +31741,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -31722,7 +31749,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -31730,7 +31757,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -31738,7 +31765,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -31746,7 +31773,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -31754,7 +31781,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -31762,7 +31789,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -31770,7 +31797,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -31778,7 +31805,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -31786,7 +31813,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -31794,7 +31821,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -31802,7 +31829,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -36530,10 +36557,18 @@
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>1050</v>
+        <v>858</v>
       </c>
       <c r="B778" t="n">
-        <v>2.66894736842105</v>
+        <v>2.6647619047619</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2.61526315789474</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="1055">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -2605,6 +2605,9 @@
     <t xml:space="preserve">Apr 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">May 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -3181,7 +3184,7 @@
     <t xml:space="preserve">Jun 1968</t>
   </si>
   <si>
-    <t xml:space="preserve">May 2025</t>
+    <t xml:space="preserve">Jun 2025</t>
   </si>
 </sst>
 </file>
@@ -18574,6 +18577,14 @@
         <v>20969.3</v>
       </c>
     </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>861</v>
+      </c>
+      <c r="B594" t="n">
+        <v>20978.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18594,7 +18605,7 @@
         <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2">
@@ -23331,6 +23342,14 @@
       </c>
       <c r="B593" t="n">
         <v>6.9</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>861</v>
+      </c>
+      <c r="B594" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -23353,7 +23372,7 @@
         <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
@@ -24934,7 +24953,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B199"/>
     </row>
@@ -24958,12 +24977,12 @@
         <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -24971,7 +24990,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -24979,7 +24998,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -24987,7 +25006,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -24995,7 +25014,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -25003,7 +25022,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -25011,7 +25030,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -25019,7 +25038,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -25027,7 +25046,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -25035,7 +25054,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -25043,7 +25062,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -25051,7 +25070,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -25059,7 +25078,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -25067,7 +25086,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -25075,7 +25094,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -25083,7 +25102,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -25091,7 +25110,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -25099,7 +25118,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -25107,7 +25126,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25115,7 +25134,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25123,7 +25142,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25131,7 +25150,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25139,7 +25158,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25147,7 +25166,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25155,7 +25174,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25163,7 +25182,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25171,7 +25190,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25179,7 +25198,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25187,7 +25206,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25195,7 +25214,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25203,7 +25222,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25211,7 +25230,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25219,7 +25238,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25227,7 +25246,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25235,7 +25254,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25243,7 +25262,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25251,7 +25270,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25259,7 +25278,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25267,7 +25286,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25275,7 +25294,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25283,7 +25302,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25291,7 +25310,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25299,7 +25318,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25307,7 +25326,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25315,7 +25334,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25323,7 +25342,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25331,7 +25350,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25339,7 +25358,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25347,7 +25366,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25355,7 +25374,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25363,7 +25382,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25371,7 +25390,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25379,7 +25398,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25387,7 +25406,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25395,7 +25414,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25403,7 +25422,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25411,7 +25430,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25419,7 +25438,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25427,7 +25446,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25435,7 +25454,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25443,7 +25462,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25451,7 +25470,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25459,7 +25478,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25467,7 +25486,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25475,7 +25494,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25483,7 +25502,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25491,7 +25510,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25499,7 +25518,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25507,7 +25526,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25515,7 +25534,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25523,7 +25542,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25531,7 +25550,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25539,7 +25558,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25547,7 +25566,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25555,7 +25574,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25563,7 +25582,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25571,7 +25590,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25579,7 +25598,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25587,7 +25606,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25595,7 +25614,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25603,7 +25622,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25611,7 +25630,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25619,7 +25638,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25627,7 +25646,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25635,7 +25654,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25643,7 +25662,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25651,7 +25670,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25659,7 +25678,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25667,7 +25686,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25675,7 +25694,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -30198,7 +30217,7 @@
         <v>833</v>
       </c>
       <c r="B656" t="n">
-        <v>4.01742923594886</v>
+        <v>4.01671144486509</v>
       </c>
     </row>
     <row r="657">
@@ -30206,7 +30225,7 @@
         <v>834</v>
       </c>
       <c r="B657" t="n">
-        <v>4.98875030593052</v>
+        <v>4.98741004765708</v>
       </c>
     </row>
     <row r="658">
@@ -30214,7 +30233,7 @@
         <v>835</v>
       </c>
       <c r="B658" t="n">
-        <v>3.78631325479604</v>
+        <v>3.78429545313242</v>
       </c>
     </row>
     <row r="659">
@@ -30222,7 +30241,7 @@
         <v>836</v>
       </c>
       <c r="B659" t="n">
-        <v>4.08459885274018</v>
+        <v>4.08258649894524</v>
       </c>
     </row>
     <row r="660">
@@ -30230,7 +30249,7 @@
         <v>837</v>
       </c>
       <c r="B660" t="n">
-        <v>3.88478923861108</v>
+        <v>3.88284275866723</v>
       </c>
     </row>
     <row r="661">
@@ -30238,7 +30257,7 @@
         <v>838</v>
       </c>
       <c r="B661" t="n">
-        <v>2.82528454897968</v>
+        <v>2.82334116099639</v>
       </c>
     </row>
     <row r="662">
@@ -30246,7 +30265,7 @@
         <v>839</v>
       </c>
       <c r="B662" t="n">
-        <v>2.57917190443129</v>
+        <v>2.57802478811753</v>
       </c>
     </row>
     <row r="663">
@@ -30254,7 +30273,7 @@
         <v>840</v>
       </c>
       <c r="B663" t="n">
-        <v>3.08483198077779</v>
+        <v>3.08431755461937</v>
       </c>
     </row>
     <row r="664">
@@ -30262,7 +30281,7 @@
         <v>841</v>
       </c>
       <c r="B664" t="n">
-        <v>3.91054772707692</v>
+        <v>3.91086056613048</v>
       </c>
     </row>
     <row r="665">
@@ -30270,7 +30289,7 @@
         <v>842</v>
       </c>
       <c r="B665" t="n">
-        <v>4.75224274425995</v>
+        <v>4.75249136410995</v>
       </c>
     </row>
     <row r="666">
@@ -30278,7 +30297,7 @@
         <v>843</v>
       </c>
       <c r="B666" t="n">
-        <v>6.04487114619246</v>
+        <v>6.04513424639247</v>
       </c>
     </row>
     <row r="667">
@@ -30286,7 +30305,7 @@
         <v>844</v>
       </c>
       <c r="B667" t="n">
-        <v>6.16394974369733</v>
+        <v>6.16421341785958</v>
       </c>
     </row>
     <row r="668">
@@ -30294,7 +30313,7 @@
         <v>845</v>
       </c>
       <c r="B668" t="n">
-        <v>5.73512166749104</v>
+        <v>5.33845567309256</v>
       </c>
     </row>
     <row r="669">
@@ -30302,7 +30321,7 @@
         <v>846</v>
       </c>
       <c r="B669" t="n">
-        <v>5.63145176715916</v>
+        <v>4.8546723120974</v>
       </c>
     </row>
     <row r="670">
@@ -30310,7 +30329,7 @@
         <v>847</v>
       </c>
       <c r="B670" t="n">
-        <v>5.65468334438414</v>
+        <v>4.47290880119526</v>
       </c>
     </row>
     <row r="671">
@@ -30318,7 +30337,7 @@
         <v>848</v>
       </c>
       <c r="B671" t="n">
-        <v>4.96708347425516</v>
+        <v>3.95844135444012</v>
       </c>
     </row>
     <row r="672">
@@ -30326,7 +30345,7 @@
         <v>849</v>
       </c>
       <c r="B672" t="n">
-        <v>5.25074610446152</v>
+        <v>4.43098323410537</v>
       </c>
     </row>
     <row r="673">
@@ -30334,7 +30353,7 @@
         <v>850</v>
       </c>
       <c r="B673" t="n">
-        <v>6.38477416890089</v>
+        <v>5.74610979375672</v>
       </c>
     </row>
     <row r="674">
@@ -30342,7 +30361,7 @@
         <v>851</v>
       </c>
       <c r="B674" t="n">
-        <v>6.36739159579366</v>
+        <v>6.15180678582497</v>
       </c>
     </row>
     <row r="675">
@@ -30350,7 +30369,7 @@
         <v>852</v>
       </c>
       <c r="B675" t="n">
-        <v>5.81122441435314</v>
+        <v>6.00190399972491</v>
       </c>
     </row>
     <row r="676">
@@ -30358,7 +30377,7 @@
         <v>853</v>
       </c>
       <c r="B676" t="n">
-        <v>5.31370585514558</v>
+        <v>5.93500316368342</v>
       </c>
     </row>
     <row r="677">
@@ -30366,7 +30385,7 @@
         <v>854</v>
       </c>
       <c r="B677" t="n">
-        <v>6.98538566911566</v>
+        <v>7.43576696164324</v>
       </c>
     </row>
     <row r="678">
@@ -30374,7 +30393,7 @@
         <v>855</v>
       </c>
       <c r="B678" t="n">
-        <v>6.01788114264709</v>
+        <v>6.27646878366535</v>
       </c>
     </row>
     <row r="679">
@@ -30382,7 +30401,7 @@
         <v>856</v>
       </c>
       <c r="B679" t="n">
-        <v>5.28571310824887</v>
+        <v>5.36113100924909</v>
       </c>
     </row>
     <row r="680">
@@ -30390,7 +30409,7 @@
         <v>857</v>
       </c>
       <c r="B680" t="n">
-        <v>6.5106660160122</v>
+        <v>6.58368468520229</v>
       </c>
     </row>
     <row r="681">
@@ -30398,7 +30417,7 @@
         <v>858</v>
       </c>
       <c r="B681" t="n">
-        <v>6.9225155203401</v>
+        <v>7.03580447943009</v>
       </c>
     </row>
     <row r="682">
@@ -30406,7 +30425,15 @@
         <v>859</v>
       </c>
       <c r="B682" t="n">
-        <v>6.92877248171143</v>
+        <v>7.06051798569115</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>860</v>
+      </c>
+      <c r="B683" t="n">
+        <v>5.57557531876054</v>
       </c>
     </row>
   </sheetData>
@@ -30426,15 +30453,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30442,7 +30469,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30450,7 +30477,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30458,7 +30485,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30466,7 +30493,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30474,7 +30501,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30482,7 +30509,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30490,7 +30517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30498,7 +30525,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30506,7 +30533,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30514,7 +30541,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30522,7 +30549,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30530,7 +30557,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30538,7 +30565,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30546,7 +30573,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30554,7 +30581,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30562,7 +30589,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30570,7 +30597,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30578,7 +30605,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30586,7 +30613,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30594,7 +30621,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30602,7 +30629,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30610,7 +30637,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30618,7 +30645,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30626,7 +30653,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30634,7 +30661,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30642,7 +30669,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30650,7 +30677,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30658,7 +30685,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -30666,7 +30693,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -30674,7 +30701,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -30682,7 +30709,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -30690,7 +30717,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -30698,7 +30725,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -30706,7 +30733,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -30714,7 +30741,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -30722,7 +30749,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -30730,7 +30757,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -30738,7 +30765,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -30746,7 +30773,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -30754,7 +30781,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -30762,7 +30789,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -30770,7 +30797,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -30778,7 +30805,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -30786,7 +30813,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -30794,7 +30821,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -30802,7 +30829,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -30810,7 +30837,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -30818,7 +30845,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -30826,7 +30853,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -30834,7 +30861,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -30842,7 +30869,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -30850,7 +30877,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -30858,7 +30885,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -30866,7 +30893,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -30874,7 +30901,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -30882,7 +30909,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -30890,7 +30917,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -30898,7 +30925,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -30906,7 +30933,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -30914,7 +30941,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -30922,7 +30949,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -30930,7 +30957,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -30938,7 +30965,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -30946,7 +30973,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -30954,7 +30981,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -30962,7 +30989,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -30970,7 +30997,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -30978,7 +31005,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -30986,7 +31013,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -30994,7 +31021,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -31002,7 +31029,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -31010,7 +31037,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -31018,7 +31045,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -31026,7 +31053,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -31034,7 +31061,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -31042,7 +31069,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -31050,7 +31077,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -31058,7 +31085,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -31066,7 +31093,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -31074,7 +31101,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -31082,7 +31109,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -31090,7 +31117,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -31098,7 +31125,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -31106,7 +31133,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -31114,7 +31141,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -31122,7 +31149,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -31130,7 +31157,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -31138,7 +31165,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31146,7 +31173,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31154,7 +31181,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31162,7 +31189,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31170,7 +31197,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31178,7 +31205,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31186,7 +31213,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31194,7 +31221,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31202,7 +31229,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31210,7 +31237,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31218,7 +31245,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31226,7 +31253,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31234,7 +31261,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31242,7 +31269,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31250,7 +31277,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31258,7 +31285,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31266,7 +31293,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31274,7 +31301,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31282,7 +31309,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31290,7 +31317,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31298,7 +31325,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31306,7 +31333,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31314,7 +31341,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31322,7 +31349,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31330,7 +31357,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31338,7 +31365,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31346,7 +31373,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31354,7 +31381,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31362,7 +31389,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31370,7 +31397,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31378,7 +31405,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31386,7 +31413,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31394,7 +31421,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31402,7 +31429,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31410,7 +31437,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31418,7 +31445,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31426,7 +31453,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31434,7 +31461,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31442,7 +31469,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31450,7 +31477,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31458,7 +31485,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31466,7 +31493,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31474,7 +31501,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31482,7 +31509,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31490,7 +31517,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31498,7 +31525,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31506,7 +31533,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31514,7 +31541,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31522,7 +31549,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31530,7 +31557,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31538,7 +31565,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31546,7 +31573,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31554,7 +31581,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31562,7 +31589,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31570,7 +31597,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31578,7 +31605,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31586,7 +31613,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31594,7 +31621,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31602,7 +31629,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31610,7 +31637,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31618,7 +31645,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31626,7 +31653,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31634,7 +31661,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31642,7 +31669,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31650,7 +31677,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31658,7 +31685,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -31666,7 +31693,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -31674,7 +31701,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -31682,7 +31709,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -31690,7 +31717,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -31698,7 +31725,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -31706,7 +31733,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -31714,7 +31741,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -31722,7 +31749,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -31730,7 +31757,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -31738,7 +31765,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -31746,7 +31773,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -31754,7 +31781,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -31762,7 +31789,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -31770,7 +31797,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -31778,7 +31805,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -31786,7 +31813,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -31794,7 +31821,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -31802,7 +31829,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -31810,7 +31837,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -31818,7 +31845,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -31826,7 +31853,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -31834,7 +31861,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -31842,7 +31869,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -31850,7 +31877,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -31858,7 +31885,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -31866,7 +31893,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -31874,7 +31901,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -31882,7 +31909,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -31890,7 +31917,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -31898,7 +31925,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -31906,7 +31933,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -31914,7 +31941,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -36658,10 +36685,18 @@
     </row>
     <row r="780">
       <c r="A780" t="s">
-        <v>1053</v>
+        <v>861</v>
       </c>
       <c r="B780" t="n">
-        <v>2.62105263157895</v>
+        <v>2.62285714285714</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2.66052631578947</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1056">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -2608,6 +2608,9 @@
     <t xml:space="preserve">May 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Jun 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -3184,7 +3187,7 @@
     <t xml:space="preserve">Jun 1968</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun 2025</t>
+    <t xml:space="preserve">Jul 2025</t>
   </si>
 </sst>
 </file>
@@ -18585,6 +18588,14 @@
         <v>20978.1</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>862</v>
+      </c>
+      <c r="B595" t="n">
+        <v>21061.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18605,7 +18616,7 @@
         <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
@@ -23350,6 +23361,14 @@
       </c>
       <c r="B594" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>862</v>
+      </c>
+      <c r="B595" t="n">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -23372,7 +23391,7 @@
         <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2">
@@ -24953,7 +24972,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B199"/>
     </row>
@@ -24977,12 +24996,12 @@
         <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -24990,7 +25009,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -24998,7 +25017,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -25006,7 +25025,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -25014,7 +25033,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -25022,7 +25041,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -25030,7 +25049,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -25038,7 +25057,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -25046,7 +25065,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -25054,7 +25073,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -25062,7 +25081,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -25070,7 +25089,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -25078,7 +25097,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -25086,7 +25105,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -25094,7 +25113,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -25102,7 +25121,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -25110,7 +25129,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -25118,7 +25137,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -25126,7 +25145,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25134,7 +25153,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25142,7 +25161,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25150,7 +25169,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25158,7 +25177,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25166,7 +25185,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25174,7 +25193,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25182,7 +25201,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25190,7 +25209,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25198,7 +25217,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25206,7 +25225,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25214,7 +25233,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25222,7 +25241,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25230,7 +25249,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25238,7 +25257,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25246,7 +25265,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25254,7 +25273,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25262,7 +25281,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25270,7 +25289,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25278,7 +25297,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25286,7 +25305,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25294,7 +25313,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25302,7 +25321,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25310,7 +25329,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25318,7 +25337,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25326,7 +25345,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25334,7 +25353,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25342,7 +25361,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25350,7 +25369,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25358,7 +25377,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25366,7 +25385,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25374,7 +25393,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25382,7 +25401,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25390,7 +25409,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25398,7 +25417,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25406,7 +25425,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25414,7 +25433,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25422,7 +25441,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25430,7 +25449,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25438,7 +25457,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25446,7 +25465,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25454,7 +25473,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25462,7 +25481,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25470,7 +25489,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25478,7 +25497,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25486,7 +25505,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25494,7 +25513,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25502,7 +25521,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25510,7 +25529,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25518,7 +25537,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25526,7 +25545,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25534,7 +25553,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25542,7 +25561,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25550,7 +25569,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25558,7 +25577,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25566,7 +25585,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25574,7 +25593,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25582,7 +25601,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25590,7 +25609,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25598,7 +25617,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25606,7 +25625,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25614,7 +25633,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25622,7 +25641,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25630,7 +25649,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25638,7 +25657,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25646,7 +25665,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25654,7 +25673,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25662,7 +25681,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25670,7 +25689,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25678,7 +25697,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25686,7 +25705,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25694,7 +25713,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -30409,7 +30428,7 @@
         <v>857</v>
       </c>
       <c r="B680" t="n">
-        <v>6.58368468520229</v>
+        <v>6.57698527448441</v>
       </c>
     </row>
     <row r="681">
@@ -30417,7 +30436,7 @@
         <v>858</v>
       </c>
       <c r="B681" t="n">
-        <v>7.03580447943009</v>
+        <v>7.02338420584193</v>
       </c>
     </row>
     <row r="682">
@@ -30425,7 +30444,7 @@
         <v>859</v>
       </c>
       <c r="B682" t="n">
-        <v>7.06051798569115</v>
+        <v>7.04186490180057</v>
       </c>
     </row>
     <row r="683">
@@ -30433,7 +30452,15 @@
         <v>860</v>
       </c>
       <c r="B683" t="n">
-        <v>5.57557531876054</v>
+        <v>5.55700255604082</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>861</v>
+      </c>
+      <c r="B684" t="n">
+        <v>6.07650249650739</v>
       </c>
     </row>
   </sheetData>
@@ -30453,15 +30480,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30469,7 +30496,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30477,7 +30504,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30485,7 +30512,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30493,7 +30520,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30501,7 +30528,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30509,7 +30536,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30517,7 +30544,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30525,7 +30552,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30533,7 +30560,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30541,7 +30568,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30549,7 +30576,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30557,7 +30584,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30565,7 +30592,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30573,7 +30600,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30581,7 +30608,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30589,7 +30616,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30597,7 +30624,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30605,7 +30632,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30613,7 +30640,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30621,7 +30648,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30629,7 +30656,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30637,7 +30664,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30645,7 +30672,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30653,7 +30680,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30661,7 +30688,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30669,7 +30696,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30677,7 +30704,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30685,7 +30712,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -30693,7 +30720,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -30701,7 +30728,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -30709,7 +30736,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -30717,7 +30744,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -30725,7 +30752,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -30733,7 +30760,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -30741,7 +30768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -30749,7 +30776,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -30757,7 +30784,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -30765,7 +30792,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -30773,7 +30800,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -30781,7 +30808,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -30789,7 +30816,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -30797,7 +30824,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -30805,7 +30832,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -30813,7 +30840,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -30821,7 +30848,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -30829,7 +30856,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -30837,7 +30864,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -30845,7 +30872,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -30853,7 +30880,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -30861,7 +30888,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -30869,7 +30896,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -30877,7 +30904,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -30885,7 +30912,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -30893,7 +30920,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -30901,7 +30928,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -30909,7 +30936,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -30917,7 +30944,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -30925,7 +30952,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -30933,7 +30960,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -30941,7 +30968,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -30949,7 +30976,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -30957,7 +30984,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -30965,7 +30992,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -30973,7 +31000,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -30981,7 +31008,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -30989,7 +31016,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -30997,7 +31024,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -31005,7 +31032,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -31013,7 +31040,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -31021,7 +31048,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -31029,7 +31056,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -31037,7 +31064,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -31045,7 +31072,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -31053,7 +31080,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -31061,7 +31088,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -31069,7 +31096,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -31077,7 +31104,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -31085,7 +31112,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -31093,7 +31120,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -31101,7 +31128,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -31109,7 +31136,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -31117,7 +31144,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -31125,7 +31152,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -31133,7 +31160,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -31141,7 +31168,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -31149,7 +31176,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -31157,7 +31184,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -31165,7 +31192,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31173,7 +31200,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31181,7 +31208,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31189,7 +31216,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31197,7 +31224,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31205,7 +31232,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31213,7 +31240,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31221,7 +31248,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31229,7 +31256,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31237,7 +31264,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31245,7 +31272,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31253,7 +31280,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31261,7 +31288,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31269,7 +31296,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31277,7 +31304,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31285,7 +31312,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31293,7 +31320,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31301,7 +31328,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31309,7 +31336,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31317,7 +31344,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31325,7 +31352,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31333,7 +31360,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31341,7 +31368,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31349,7 +31376,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31357,7 +31384,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31365,7 +31392,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31373,7 +31400,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31381,7 +31408,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31389,7 +31416,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31397,7 +31424,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31405,7 +31432,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31413,7 +31440,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31421,7 +31448,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31429,7 +31456,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31437,7 +31464,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31445,7 +31472,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31453,7 +31480,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31461,7 +31488,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31469,7 +31496,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31477,7 +31504,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31485,7 +31512,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31493,7 +31520,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31501,7 +31528,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31509,7 +31536,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31517,7 +31544,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31525,7 +31552,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31533,7 +31560,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31541,7 +31568,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31549,7 +31576,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31557,7 +31584,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31565,7 +31592,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31573,7 +31600,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31581,7 +31608,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31589,7 +31616,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31597,7 +31624,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31605,7 +31632,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31613,7 +31640,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31621,7 +31648,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31629,7 +31656,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31637,7 +31664,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31645,7 +31672,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31653,7 +31680,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31661,7 +31688,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31669,7 +31696,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31677,7 +31704,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31685,7 +31712,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -31693,7 +31720,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -31701,7 +31728,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -31709,7 +31736,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -31717,7 +31744,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -31725,7 +31752,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -31733,7 +31760,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -31741,7 +31768,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -31749,7 +31776,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -31757,7 +31784,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -31765,7 +31792,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -31773,7 +31800,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -31781,7 +31808,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -31789,7 +31816,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -31797,7 +31824,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -31805,7 +31832,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -31813,7 +31840,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -31821,7 +31848,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -31829,7 +31856,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -31837,7 +31864,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -31845,7 +31872,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -31853,7 +31880,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -31861,7 +31888,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -31869,7 +31896,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -31877,7 +31904,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -31885,7 +31912,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -31893,7 +31920,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -31901,7 +31928,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -31909,7 +31936,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -31917,7 +31944,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -31925,7 +31952,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -31933,7 +31960,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -31941,7 +31968,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -36693,10 +36720,18 @@
     </row>
     <row r="781">
       <c r="A781" t="s">
-        <v>1054</v>
+        <v>862</v>
       </c>
       <c r="B781" t="n">
-        <v>2.66052631578947</v>
+        <v>2.65952380952381</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B782" t="n">
+        <v>2.657</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="1059">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -2617,6 +2617,9 @@
     <t xml:space="preserve">Jul 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Aug 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -3193,7 +3196,7 @@
     <t xml:space="preserve">Jun 1968</t>
   </si>
   <si>
-    <t xml:space="preserve">Aug 2025</t>
+    <t xml:space="preserve">Sep 2025</t>
   </si>
 </sst>
 </file>
@@ -5797,7 +5800,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="n">
-        <v>72817.6835952503</v>
+        <v>72792.3395755105</v>
       </c>
     </row>
     <row r="246">
@@ -5805,7 +5808,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="n">
-        <v>73211.7938757692</v>
+        <v>73213.0316203372</v>
       </c>
     </row>
     <row r="247">
@@ -5813,7 +5816,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="n">
-        <v>73675.8422954619</v>
+        <v>73655.6872645958</v>
       </c>
     </row>
     <row r="248">
@@ -5821,7 +5824,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="n">
-        <v>73639.1742349055</v>
+        <v>73612.3314761752</v>
       </c>
     </row>
     <row r="249">
@@ -5829,7 +5832,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="n">
-        <v>72890.4732408569</v>
+        <v>72881.2145371748</v>
       </c>
     </row>
     <row r="250">
@@ -5837,7 +5840,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="n">
-        <v>73132.4106819504</v>
+        <v>73181.7632156727</v>
       </c>
     </row>
     <row r="251">
@@ -5845,7 +5848,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="n">
-        <v>72876.3452673965</v>
+        <v>72915.933775198</v>
       </c>
     </row>
     <row r="252">
@@ -5853,7 +5856,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="n">
-        <v>72168.0651768026</v>
+        <v>72230.0464326509</v>
       </c>
     </row>
     <row r="253">
@@ -5861,7 +5864,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="n">
-        <v>71526.7014694893</v>
+        <v>71608.1107552154</v>
       </c>
     </row>
     <row r="254">
@@ -5869,7 +5872,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>71430.1707212471</v>
+        <v>71535.1115894171</v>
       </c>
     </row>
     <row r="255">
@@ -5877,7 +5880,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>71436.2882801508</v>
+        <v>71520.0680265257</v>
       </c>
     </row>
     <row r="256">
@@ -5885,7 +5888,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="n">
-        <v>71426.6326985029</v>
+        <v>71472.1070497202</v>
       </c>
     </row>
     <row r="257">
@@ -5893,7 +5896,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="n">
-        <v>71484.8881699704</v>
+        <v>71435.2137903378</v>
       </c>
     </row>
     <row r="258">
@@ -5901,7 +5904,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="n">
-        <v>71735.7891776277</v>
+        <v>71656.6985806513</v>
       </c>
     </row>
     <row r="259">
@@ -5909,7 +5912,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="n">
-        <v>71415.7456184957</v>
+        <v>71320.0177997112</v>
       </c>
     </row>
   </sheetData>
@@ -18657,6 +18660,14 @@
         <v>21020.4</v>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>865</v>
+      </c>
+      <c r="B597" t="n">
+        <v>20954.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18677,7 +18688,7 @@
         <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2">
@@ -23438,6 +23449,14 @@
       </c>
       <c r="B596" t="n">
         <v>6.9</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>865</v>
+      </c>
+      <c r="B597" t="n">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -23460,7 +23479,7 @@
         <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2">
@@ -25049,7 +25068,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B200"/>
     </row>
@@ -25073,12 +25092,12 @@
         <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -25086,7 +25105,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -25094,7 +25113,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -25102,7 +25121,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -25110,7 +25129,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -25118,7 +25137,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -25126,7 +25145,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -25134,7 +25153,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -25142,7 +25161,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -25150,7 +25169,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -25158,7 +25177,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -25166,7 +25185,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -25174,7 +25193,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -25182,7 +25201,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -25190,7 +25209,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -25198,7 +25217,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -25206,7 +25225,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -25214,7 +25233,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -25222,7 +25241,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25230,7 +25249,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25238,7 +25257,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25246,7 +25265,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25254,7 +25273,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25262,7 +25281,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25270,7 +25289,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25278,7 +25297,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25286,7 +25305,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25294,7 +25313,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25302,7 +25321,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25310,7 +25329,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25318,7 +25337,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25326,7 +25345,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25334,7 +25353,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25342,7 +25361,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25350,7 +25369,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25358,7 +25377,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25366,7 +25385,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25374,7 +25393,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25382,7 +25401,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25390,7 +25409,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25398,7 +25417,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25406,7 +25425,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25414,7 +25433,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25422,7 +25441,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25430,7 +25449,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25438,7 +25457,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25446,7 +25465,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25454,7 +25473,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25462,7 +25481,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25470,7 +25489,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25478,7 +25497,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25486,7 +25505,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25494,7 +25513,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25502,7 +25521,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25510,7 +25529,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25518,7 +25537,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25526,7 +25545,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25534,7 +25553,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25542,7 +25561,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25550,7 +25569,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25558,7 +25577,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25566,7 +25585,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25574,7 +25593,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25582,7 +25601,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25590,7 +25609,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25598,7 +25617,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25606,7 +25625,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25614,7 +25633,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25622,7 +25641,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25630,7 +25649,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25638,7 +25657,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25646,7 +25665,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25654,7 +25673,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25662,7 +25681,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25670,7 +25689,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25678,7 +25697,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25686,7 +25705,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25694,7 +25713,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25702,7 +25721,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25710,7 +25729,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25718,7 +25737,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25726,7 +25745,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25734,7 +25753,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25742,7 +25761,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25750,7 +25769,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25758,7 +25777,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25766,7 +25785,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25774,7 +25793,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25782,7 +25801,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25790,7 +25809,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -30505,7 +30524,7 @@
         <v>858</v>
       </c>
       <c r="B680" t="n">
-        <v>6.57698527448441</v>
+        <v>6.60527201467838</v>
       </c>
     </row>
     <row r="681">
@@ -30513,7 +30532,7 @@
         <v>859</v>
       </c>
       <c r="B681" t="n">
-        <v>7.02338420584193</v>
+        <v>7.07596290078754</v>
       </c>
     </row>
     <row r="682">
@@ -30521,7 +30540,7 @@
         <v>860</v>
       </c>
       <c r="B682" t="n">
-        <v>7.04186490180057</v>
+        <v>7.12088024404497</v>
       </c>
     </row>
     <row r="683">
@@ -30529,7 +30548,7 @@
         <v>861</v>
       </c>
       <c r="B683" t="n">
-        <v>5.55700255604082</v>
+        <v>5.46307295242701</v>
       </c>
     </row>
     <row r="684">
@@ -30537,7 +30556,7 @@
         <v>862</v>
       </c>
       <c r="B684" t="n">
-        <v>6.06429951883285</v>
+        <v>5.79186243557826</v>
       </c>
     </row>
     <row r="685">
@@ -30545,7 +30564,15 @@
         <v>863</v>
       </c>
       <c r="B685" t="n">
-        <v>5.82688278685363</v>
+        <v>5.38659876452049</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>864</v>
+      </c>
+      <c r="B686" t="n">
+        <v>3.72011042196959</v>
       </c>
     </row>
   </sheetData>
@@ -30565,15 +30592,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30581,7 +30608,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30589,7 +30616,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30597,7 +30624,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30605,7 +30632,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30613,7 +30640,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30621,7 +30648,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30629,7 +30656,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30637,7 +30664,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30645,7 +30672,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30653,7 +30680,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30661,7 +30688,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30669,7 +30696,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30677,7 +30704,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30685,7 +30712,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30693,7 +30720,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30701,7 +30728,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30709,7 +30736,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30717,7 +30744,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30725,7 +30752,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30733,7 +30760,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30741,7 +30768,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30749,7 +30776,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30757,7 +30784,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30765,7 +30792,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30773,7 +30800,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30781,7 +30808,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30789,7 +30816,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30797,7 +30824,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -30805,7 +30832,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -30813,7 +30840,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -30821,7 +30848,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -30829,7 +30856,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -30837,7 +30864,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -30845,7 +30872,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -30853,7 +30880,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -30861,7 +30888,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -30869,7 +30896,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -30877,7 +30904,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -30885,7 +30912,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -30893,7 +30920,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -30901,7 +30928,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -30909,7 +30936,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -30917,7 +30944,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -30925,7 +30952,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -30933,7 +30960,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -30941,7 +30968,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -30949,7 +30976,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -30957,7 +30984,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -30965,7 +30992,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -30973,7 +31000,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -30981,7 +31008,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -30989,7 +31016,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -30997,7 +31024,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -31005,7 +31032,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -31013,7 +31040,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -31021,7 +31048,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -31029,7 +31056,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -31037,7 +31064,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -31045,7 +31072,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -31053,7 +31080,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -31061,7 +31088,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -31069,7 +31096,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -31077,7 +31104,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -31085,7 +31112,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -31093,7 +31120,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -31101,7 +31128,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -31109,7 +31136,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -31117,7 +31144,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -31125,7 +31152,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -31133,7 +31160,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -31141,7 +31168,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -31149,7 +31176,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -31157,7 +31184,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -31165,7 +31192,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -31173,7 +31200,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -31181,7 +31208,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -31189,7 +31216,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -31197,7 +31224,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -31205,7 +31232,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -31213,7 +31240,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -31221,7 +31248,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -31229,7 +31256,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -31237,7 +31264,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -31245,7 +31272,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -31253,7 +31280,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -31261,7 +31288,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -31269,7 +31296,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -31277,7 +31304,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31285,7 +31312,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31293,7 +31320,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31301,7 +31328,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31309,7 +31336,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31317,7 +31344,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31325,7 +31352,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31333,7 +31360,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31341,7 +31368,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31349,7 +31376,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31357,7 +31384,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31365,7 +31392,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31373,7 +31400,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31381,7 +31408,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31389,7 +31416,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31397,7 +31424,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31405,7 +31432,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31413,7 +31440,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31421,7 +31448,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31429,7 +31456,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31437,7 +31464,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31445,7 +31472,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31453,7 +31480,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31461,7 +31488,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31469,7 +31496,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31477,7 +31504,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31485,7 +31512,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31493,7 +31520,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31501,7 +31528,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31509,7 +31536,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31517,7 +31544,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31525,7 +31552,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31533,7 +31560,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31541,7 +31568,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31549,7 +31576,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31557,7 +31584,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31565,7 +31592,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31573,7 +31600,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31581,7 +31608,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31589,7 +31616,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31597,7 +31624,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31605,7 +31632,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31613,7 +31640,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31621,7 +31648,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31629,7 +31656,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31637,7 +31664,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31645,7 +31672,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31653,7 +31680,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31661,7 +31688,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31669,7 +31696,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31677,7 +31704,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31685,7 +31712,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31693,7 +31720,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31701,7 +31728,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31709,7 +31736,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31717,7 +31744,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31725,7 +31752,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31733,7 +31760,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31741,7 +31768,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31749,7 +31776,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31757,7 +31784,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31765,7 +31792,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31773,7 +31800,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31781,7 +31808,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31789,7 +31816,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31797,7 +31824,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -31805,7 +31832,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -31813,7 +31840,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -31821,7 +31848,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -31829,7 +31856,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -31837,7 +31864,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -31845,7 +31872,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -31853,7 +31880,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -31861,7 +31888,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -31869,7 +31896,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -31877,7 +31904,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -31885,7 +31912,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -31893,7 +31920,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -31901,7 +31928,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -31909,7 +31936,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -31917,7 +31944,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -31925,7 +31952,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -31933,7 +31960,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -31941,7 +31968,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -31949,7 +31976,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -31957,7 +31984,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -31965,7 +31992,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -31973,7 +32000,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -31981,7 +32008,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -31989,7 +32016,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -31997,7 +32024,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -32005,7 +32032,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -32013,7 +32040,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -32021,7 +32048,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -32029,7 +32056,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -32037,7 +32064,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -32045,7 +32072,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -32053,7 +32080,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -36821,10 +36848,18 @@
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>1057</v>
+        <v>865</v>
       </c>
       <c r="B783" t="n">
-        <v>2.65055555555556</v>
+        <v>2.651</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.482</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1060">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -3197,6 +3197,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sep 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 2025</t>
   </si>
 </sst>
 </file>
@@ -36862,6 +36865,14 @@
         <v>2.482</v>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2.408</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -2620,6 +2620,9 @@
     <t xml:space="preserve">Aug 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Sep 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -3194,9 +3197,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jun 1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Oct 2025</t>
@@ -18671,6 +18671,14 @@
         <v>20954.9</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>866</v>
+      </c>
+      <c r="B598" t="n">
+        <v>21015.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18691,7 +18699,7 @@
         <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2">
@@ -23459,6 +23467,14 @@
         <v>865</v>
       </c>
       <c r="B597" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>866</v>
+      </c>
+      <c r="B598" t="n">
         <v>7.1</v>
       </c>
     </row>
@@ -23482,7 +23498,7 @@
         <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2">
@@ -25071,7 +25087,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B200"/>
     </row>
@@ -25095,12 +25111,12 @@
         <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -25108,7 +25124,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -25116,7 +25132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -25124,7 +25140,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -25132,7 +25148,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -25140,7 +25156,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -25148,7 +25164,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -25156,7 +25172,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -25164,7 +25180,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -25172,7 +25188,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -25180,7 +25196,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -25188,7 +25204,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -25196,7 +25212,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -25204,7 +25220,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -25212,7 +25228,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -25220,7 +25236,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -25228,7 +25244,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -25236,7 +25252,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -25244,7 +25260,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25252,7 +25268,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25260,7 +25276,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25268,7 +25284,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25276,7 +25292,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25284,7 +25300,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25292,7 +25308,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25300,7 +25316,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25308,7 +25324,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25316,7 +25332,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25324,7 +25340,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25332,7 +25348,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25340,7 +25356,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25348,7 +25364,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25356,7 +25372,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25364,7 +25380,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25372,7 +25388,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25380,7 +25396,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25388,7 +25404,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25396,7 +25412,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25404,7 +25420,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25412,7 +25428,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25420,7 +25436,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25428,7 +25444,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25436,7 +25452,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25444,7 +25460,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25452,7 +25468,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25460,7 +25476,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25468,7 +25484,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25476,7 +25492,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25484,7 +25500,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25492,7 +25508,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25500,7 +25516,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25508,7 +25524,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25516,7 +25532,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25524,7 +25540,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25532,7 +25548,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25540,7 +25556,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25548,7 +25564,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25556,7 +25572,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25564,7 +25580,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25572,7 +25588,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25580,7 +25596,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25588,7 +25604,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25596,7 +25612,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25604,7 +25620,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25612,7 +25628,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25620,7 +25636,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25628,7 +25644,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25636,7 +25652,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25644,7 +25660,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25652,7 +25668,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25660,7 +25676,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25668,7 +25684,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25676,7 +25692,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25684,7 +25700,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25692,7 +25708,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25700,7 +25716,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25708,7 +25724,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25716,7 +25732,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25724,7 +25740,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25732,7 +25748,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25740,7 +25756,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25748,7 +25764,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25756,7 +25772,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25764,7 +25780,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25772,7 +25788,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25780,7 +25796,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25788,7 +25804,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25796,7 +25812,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25804,7 +25820,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25812,7 +25828,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -30595,15 +30611,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30611,7 +30627,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30619,7 +30635,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30627,7 +30643,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30635,7 +30651,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30643,7 +30659,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30651,7 +30667,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30659,7 +30675,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30667,7 +30683,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30675,7 +30691,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30683,7 +30699,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30691,7 +30707,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30699,7 +30715,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30707,7 +30723,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30715,7 +30731,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30723,7 +30739,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30731,7 +30747,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30739,7 +30755,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30747,7 +30763,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30755,7 +30771,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30763,7 +30779,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30771,7 +30787,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30779,7 +30795,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30787,7 +30803,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30795,7 +30811,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30803,7 +30819,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30811,7 +30827,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30819,7 +30835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30827,7 +30843,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -30835,7 +30851,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -30843,7 +30859,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -30851,7 +30867,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -30859,7 +30875,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -30867,7 +30883,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -30875,7 +30891,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -30883,7 +30899,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -30891,7 +30907,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -30899,7 +30915,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -30907,7 +30923,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -30915,7 +30931,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -30923,7 +30939,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -30931,7 +30947,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -30939,7 +30955,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -30947,7 +30963,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -30955,7 +30971,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -30963,7 +30979,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -30971,7 +30987,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -30979,7 +30995,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -30987,7 +31003,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -30995,7 +31011,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -31003,7 +31019,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -31011,7 +31027,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -31019,7 +31035,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -31027,7 +31043,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -31035,7 +31051,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -31043,7 +31059,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -31051,7 +31067,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -31059,7 +31075,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -31067,7 +31083,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -31075,7 +31091,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -31083,7 +31099,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -31091,7 +31107,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -31099,7 +31115,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -31107,7 +31123,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -31115,7 +31131,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -31123,7 +31139,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -31131,7 +31147,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -31139,7 +31155,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -31147,7 +31163,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -31155,7 +31171,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -31163,7 +31179,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -31171,7 +31187,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -31179,7 +31195,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -31187,7 +31203,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -31195,7 +31211,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -31203,7 +31219,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -31211,7 +31227,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -31219,7 +31235,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -31227,7 +31243,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -31235,7 +31251,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -31243,7 +31259,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -31251,7 +31267,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -31259,7 +31275,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -31267,7 +31283,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -31275,7 +31291,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -31283,7 +31299,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -31291,7 +31307,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -31299,7 +31315,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -31307,7 +31323,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31315,7 +31331,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31323,7 +31339,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31331,7 +31347,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31339,7 +31355,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31347,7 +31363,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31355,7 +31371,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31363,7 +31379,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31371,7 +31387,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31379,7 +31395,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31387,7 +31403,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31395,7 +31411,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31403,7 +31419,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31411,7 +31427,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31419,7 +31435,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31427,7 +31443,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31435,7 +31451,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31443,7 +31459,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31451,7 +31467,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31459,7 +31475,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31467,7 +31483,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31475,7 +31491,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31483,7 +31499,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31491,7 +31507,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31499,7 +31515,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31507,7 +31523,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31515,7 +31531,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31523,7 +31539,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31531,7 +31547,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31539,7 +31555,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31547,7 +31563,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31555,7 +31571,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31563,7 +31579,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31571,7 +31587,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31579,7 +31595,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31587,7 +31603,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31595,7 +31611,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31603,7 +31619,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31611,7 +31627,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31619,7 +31635,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31627,7 +31643,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31635,7 +31651,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31643,7 +31659,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31651,7 +31667,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31659,7 +31675,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31667,7 +31683,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31675,7 +31691,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31683,7 +31699,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31691,7 +31707,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31699,7 +31715,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31707,7 +31723,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31715,7 +31731,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31723,7 +31739,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31731,7 +31747,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31739,7 +31755,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31747,7 +31763,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31755,7 +31771,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31763,7 +31779,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31771,7 +31787,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31779,7 +31795,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31787,7 +31803,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31795,7 +31811,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31803,7 +31819,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31811,7 +31827,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31819,7 +31835,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31827,7 +31843,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -31835,7 +31851,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -31843,7 +31859,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -31851,7 +31867,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -31859,7 +31875,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -31867,7 +31883,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -31875,7 +31891,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -31883,7 +31899,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -31891,7 +31907,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -31899,7 +31915,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -31907,7 +31923,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -31915,7 +31931,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -31923,7 +31939,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -31931,7 +31947,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -31939,7 +31955,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -31947,7 +31963,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -31955,7 +31971,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -31963,7 +31979,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -31971,7 +31987,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -31979,7 +31995,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -31987,7 +32003,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -31995,7 +32011,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -32003,7 +32019,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -32011,7 +32027,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -32019,7 +32035,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -32027,7 +32043,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -32035,7 +32051,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -32043,7 +32059,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -32051,7 +32067,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -32059,7 +32075,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -32067,7 +32083,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -32075,7 +32091,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -32083,7 +32099,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -36859,7 +36875,7 @@
     </row>
     <row r="784">
       <c r="A784" t="s">
-        <v>1058</v>
+        <v>866</v>
       </c>
       <c r="B784" t="n">
         <v>2.482</v>
@@ -36870,7 +36886,7 @@
         <v>1059</v>
       </c>
       <c r="B785" t="n">
-        <v>2.408</v>
+        <v>2.39</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -30567,7 +30567,7 @@
         <v>861</v>
       </c>
       <c r="B683" t="n">
-        <v>5.46307295242701</v>
+        <v>5.46363734840546</v>
       </c>
     </row>
     <row r="684">
@@ -30575,7 +30575,7 @@
         <v>862</v>
       </c>
       <c r="B684" t="n">
-        <v>5.79186243557826</v>
+        <v>5.79273931124378</v>
       </c>
     </row>
     <row r="685">
@@ -30583,7 +30583,7 @@
         <v>863</v>
       </c>
       <c r="B685" t="n">
-        <v>5.38659876452049</v>
+        <v>5.38722857934069</v>
       </c>
     </row>
     <row r="686">
@@ -30591,7 +30591,15 @@
         <v>864</v>
       </c>
       <c r="B686" t="n">
-        <v>3.72011042196959</v>
+        <v>3.72014108767786</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>865</v>
+      </c>
+      <c r="B687" t="n">
+        <v>4.1359318796564</v>
       </c>
     </row>
   </sheetData>
@@ -36886,7 +36894,7 @@
         <v>1059</v>
       </c>
       <c r="B785" t="n">
-        <v>2.39</v>
+        <v>2.37642857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -36894,7 +36894,7 @@
         <v>1059</v>
       </c>
       <c r="B785" t="n">
-        <v>2.37642857142857</v>
+        <v>2.34789473684211</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1061">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -3200,6 +3200,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oct 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 2025</t>
   </si>
 </sst>
 </file>
@@ -36894,7 +36897,15 @@
         <v>1059</v>
       </c>
       <c r="B785" t="n">
-        <v>2.34789473684211</v>
+        <v>2.33045454545455</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2.21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="1062">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -2623,6 +2623,9 @@
     <t xml:space="preserve">Sep 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Oct 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -2632,6 +2635,9 @@
     <t xml:space="preserve">2025 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">2025 Q4</t>
+  </si>
+  <si>
     <t xml:space="preserve">M2growth</t>
   </si>
   <si>
@@ -3197,9 +3203,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jun 1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Nov 2025</t>
@@ -18682,6 +18685,14 @@
         <v>21015.3</v>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>867</v>
+      </c>
+      <c r="B599" t="n">
+        <v>21081.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18702,7 +18713,7 @@
         <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2">
@@ -23479,6 +23490,14 @@
       </c>
       <c r="B598" t="n">
         <v>7.1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>867</v>
+      </c>
+      <c r="B599" t="n">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
@@ -23501,7 +23520,7 @@
         <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="2">
@@ -25090,9 +25109,15 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>871</v>
+      </c>
+      <c r="B201"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25114,12 +25139,12 @@
         <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -25127,7 +25152,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -25135,7 +25160,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -25143,7 +25168,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -25151,7 +25176,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -25159,7 +25184,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -25167,7 +25192,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -25175,7 +25200,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -25183,7 +25208,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -25191,7 +25216,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -25199,7 +25224,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -25207,7 +25232,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -25215,7 +25240,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -25223,7 +25248,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -25231,7 +25256,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -25239,7 +25264,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -25247,7 +25272,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -25255,7 +25280,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -25263,7 +25288,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25271,7 +25296,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25279,7 +25304,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25287,7 +25312,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25295,7 +25320,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25303,7 +25328,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25311,7 +25336,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25319,7 +25344,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25327,7 +25352,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25335,7 +25360,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25343,7 +25368,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25351,7 +25376,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25359,7 +25384,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25367,7 +25392,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25375,7 +25400,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25383,7 +25408,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25391,7 +25416,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25399,7 +25424,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25407,7 +25432,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25415,7 +25440,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25423,7 +25448,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25431,7 +25456,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25439,7 +25464,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25447,7 +25472,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25455,7 +25480,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25463,7 +25488,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25471,7 +25496,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25479,7 +25504,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25487,7 +25512,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25495,7 +25520,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25503,7 +25528,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25511,7 +25536,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25519,7 +25544,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25527,7 +25552,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25535,7 +25560,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25543,7 +25568,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25551,7 +25576,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25559,7 +25584,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25567,7 +25592,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25575,7 +25600,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25583,7 +25608,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25591,7 +25616,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25599,7 +25624,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25607,7 +25632,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25615,7 +25640,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25623,7 +25648,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25631,7 +25656,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25639,7 +25664,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25647,7 +25672,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25655,7 +25680,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25663,7 +25688,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25671,7 +25696,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25679,7 +25704,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25687,7 +25712,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25695,7 +25720,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25703,7 +25728,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25711,7 +25736,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25719,7 +25744,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25727,7 +25752,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25735,7 +25760,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25743,7 +25768,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25751,7 +25776,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25759,7 +25784,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25767,7 +25792,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25775,7 +25800,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25783,7 +25808,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25791,7 +25816,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25799,7 +25824,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25807,7 +25832,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25815,7 +25840,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25823,7 +25848,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25831,7 +25856,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -30622,15 +30647,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30638,7 +30663,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30646,7 +30671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30654,7 +30679,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30662,7 +30687,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30670,7 +30695,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30678,7 +30703,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30686,7 +30711,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30694,7 +30719,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30702,7 +30727,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30710,7 +30735,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30718,7 +30743,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30726,7 +30751,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30734,7 +30759,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30742,7 +30767,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30750,7 +30775,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30758,7 +30783,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30766,7 +30791,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30774,7 +30799,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30782,7 +30807,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30790,7 +30815,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30798,7 +30823,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30806,7 +30831,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30814,7 +30839,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30822,7 +30847,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30830,7 +30855,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30838,7 +30863,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30846,7 +30871,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30854,7 +30879,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -30862,7 +30887,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -30870,7 +30895,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -30878,7 +30903,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -30886,7 +30911,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -30894,7 +30919,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -30902,7 +30927,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -30910,7 +30935,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -30918,7 +30943,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -30926,7 +30951,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -30934,7 +30959,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -30942,7 +30967,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -30950,7 +30975,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -30958,7 +30983,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -30966,7 +30991,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -30974,7 +30999,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -30982,7 +31007,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -30990,7 +31015,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -30998,7 +31023,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -31006,7 +31031,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -31014,7 +31039,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -31022,7 +31047,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -31030,7 +31055,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -31038,7 +31063,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -31046,7 +31071,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -31054,7 +31079,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -31062,7 +31087,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -31070,7 +31095,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -31078,7 +31103,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -31086,7 +31111,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -31094,7 +31119,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -31102,7 +31127,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -31110,7 +31135,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -31118,7 +31143,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -31126,7 +31151,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -31134,7 +31159,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -31142,7 +31167,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -31150,7 +31175,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -31158,7 +31183,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -31166,7 +31191,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -31174,7 +31199,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -31182,7 +31207,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -31190,7 +31215,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -31198,7 +31223,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -31206,7 +31231,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -31214,7 +31239,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -31222,7 +31247,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -31230,7 +31255,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -31238,7 +31263,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -31246,7 +31271,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -31254,7 +31279,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -31262,7 +31287,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -31270,7 +31295,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -31278,7 +31303,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -31286,7 +31311,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -31294,7 +31319,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -31302,7 +31327,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -31310,7 +31335,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -31318,7 +31343,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -31326,7 +31351,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -31334,7 +31359,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31342,7 +31367,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31350,7 +31375,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31358,7 +31383,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31366,7 +31391,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31374,7 +31399,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31382,7 +31407,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31390,7 +31415,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31398,7 +31423,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31406,7 +31431,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31414,7 +31439,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31422,7 +31447,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31430,7 +31455,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31438,7 +31463,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31446,7 +31471,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31454,7 +31479,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31462,7 +31487,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31470,7 +31495,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31478,7 +31503,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31486,7 +31511,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31494,7 +31519,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31502,7 +31527,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31510,7 +31535,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31518,7 +31543,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31526,7 +31551,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31534,7 +31559,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31542,7 +31567,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31550,7 +31575,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31558,7 +31583,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31566,7 +31591,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31574,7 +31599,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31582,7 +31607,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31590,7 +31615,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31598,7 +31623,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31606,7 +31631,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31614,7 +31639,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31622,7 +31647,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31630,7 +31655,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31638,7 +31663,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31646,7 +31671,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31654,7 +31679,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31662,7 +31687,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31670,7 +31695,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31678,7 +31703,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31686,7 +31711,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31694,7 +31719,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31702,7 +31727,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31710,7 +31735,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31718,7 +31743,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31726,7 +31751,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31734,7 +31759,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31742,7 +31767,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31750,7 +31775,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31758,7 +31783,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31766,7 +31791,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31774,7 +31799,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31782,7 +31807,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31790,7 +31815,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31798,7 +31823,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31806,7 +31831,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31814,7 +31839,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31822,7 +31847,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31830,7 +31855,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31838,7 +31863,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31846,7 +31871,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31854,7 +31879,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -31862,7 +31887,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -31870,7 +31895,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -31878,7 +31903,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -31886,7 +31911,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -31894,7 +31919,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -31902,7 +31927,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -31910,7 +31935,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -31918,7 +31943,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -31926,7 +31951,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -31934,7 +31959,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -31942,7 +31967,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -31950,7 +31975,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -31958,7 +31983,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -31966,7 +31991,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -31974,7 +31999,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -31982,7 +32007,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -31990,7 +32015,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -31998,7 +32023,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -32006,7 +32031,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -32014,7 +32039,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -32022,7 +32047,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -32030,7 +32055,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -32038,7 +32063,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -32046,7 +32071,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -32054,7 +32079,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -32062,7 +32087,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -32070,7 +32095,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -32078,7 +32103,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -32086,7 +32111,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -32094,7 +32119,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -32102,7 +32127,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -32110,7 +32135,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -36894,7 +36919,7 @@
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>1059</v>
+        <v>867</v>
       </c>
       <c r="B785" t="n">
         <v>2.33045454545455</v>
@@ -36902,10 +36927,10 @@
     </row>
     <row r="786">
       <c r="A786" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B786" t="n">
-        <v>2.21</v>
+        <v>2.19166666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -30595,7 +30595,7 @@
         <v>861</v>
       </c>
       <c r="B683" t="n">
-        <v>5.46363734840546</v>
+        <v>5.46313566226212</v>
       </c>
     </row>
     <row r="684">
@@ -30603,7 +30603,7 @@
         <v>862</v>
       </c>
       <c r="B684" t="n">
-        <v>5.79273931124378</v>
+        <v>5.7920508347673</v>
       </c>
     </row>
     <row r="685">
@@ -30611,7 +30611,7 @@
         <v>863</v>
       </c>
       <c r="B685" t="n">
-        <v>5.38722857934069</v>
+        <v>5.38721585127885</v>
       </c>
     </row>
     <row r="686">
@@ -30619,7 +30619,7 @@
         <v>864</v>
       </c>
       <c r="B686" t="n">
-        <v>3.72014108767786</v>
+        <v>3.70539960508897</v>
       </c>
     </row>
     <row r="687">
@@ -30627,7 +30627,15 @@
         <v>865</v>
       </c>
       <c r="B687" t="n">
-        <v>4.1359318796564</v>
+        <v>4.10545304166731</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>866</v>
+      </c>
+      <c r="B688" t="n">
+        <v>3.7126380534412</v>
       </c>
     </row>
   </sheetData>
@@ -36930,7 +36938,7 @@
         <v>1061</v>
       </c>
       <c r="B786" t="n">
-        <v>2.19166666666667</v>
+        <v>2.19454545454545</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -36938,7 +36938,7 @@
         <v>1061</v>
       </c>
       <c r="B786" t="n">
-        <v>2.19454545454545</v>
+        <v>2.190625</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -2629,6 +2629,9 @@
     <t xml:space="preserve">Oct 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Nov 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -3203,9 +3206,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jun 1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Dec 2025</t>
@@ -18743,6 +18743,14 @@
         <v>21081.9</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>869</v>
+      </c>
+      <c r="B600" t="n">
+        <v>21135.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18763,7 +18771,7 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2">
@@ -23548,6 +23556,14 @@
       </c>
       <c r="B599" t="n">
         <v>6.9</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>869</v>
+      </c>
+      <c r="B600" t="n">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -23570,7 +23586,7 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2">
@@ -25167,7 +25183,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B201"/>
     </row>
@@ -25191,12 +25207,12 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -25204,7 +25220,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -25212,7 +25228,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -25220,7 +25236,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -25228,7 +25244,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -25236,7 +25252,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -25244,7 +25260,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -25252,7 +25268,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -25260,7 +25276,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -25268,7 +25284,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -25276,7 +25292,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -25284,7 +25300,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -25292,7 +25308,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -25300,7 +25316,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -25308,7 +25324,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -25316,7 +25332,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -25324,7 +25340,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -25332,7 +25348,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -25340,7 +25356,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25348,7 +25364,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25356,7 +25372,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25364,7 +25380,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25372,7 +25388,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25380,7 +25396,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25388,7 +25404,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25396,7 +25412,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25404,7 +25420,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25412,7 +25428,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25420,7 +25436,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25428,7 +25444,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25436,7 +25452,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25444,7 +25460,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25452,7 +25468,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25460,7 +25476,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25468,7 +25484,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25476,7 +25492,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25484,7 +25500,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25492,7 +25508,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25500,7 +25516,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25508,7 +25524,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25516,7 +25532,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25524,7 +25540,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25532,7 +25548,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25540,7 +25556,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25548,7 +25564,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25556,7 +25572,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25564,7 +25580,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25572,7 +25588,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25580,7 +25596,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25588,7 +25604,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25596,7 +25612,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25604,7 +25620,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25612,7 +25628,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25620,7 +25636,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25628,7 +25644,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25636,7 +25652,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25644,7 +25660,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25652,7 +25668,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25660,7 +25676,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25668,7 +25684,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25676,7 +25692,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25684,7 +25700,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25692,7 +25708,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25700,7 +25716,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25708,7 +25724,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25716,7 +25732,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25724,7 +25740,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25732,7 +25748,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25740,7 +25756,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25748,7 +25764,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25756,7 +25772,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25764,7 +25780,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25772,7 +25788,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25780,7 +25796,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25788,7 +25804,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25796,7 +25812,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25804,7 +25820,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25812,7 +25828,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25820,7 +25836,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25828,7 +25844,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25836,7 +25852,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25844,7 +25860,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25852,7 +25868,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25860,7 +25876,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25868,7 +25884,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25876,7 +25892,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25884,7 +25900,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25892,7 +25908,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25900,7 +25916,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25908,7 +25924,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -30707,15 +30723,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30723,7 +30739,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30731,7 +30747,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30739,7 +30755,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30747,7 +30763,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30755,7 +30771,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30763,7 +30779,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30771,7 +30787,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30779,7 +30795,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30787,7 +30803,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30795,7 +30811,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30803,7 +30819,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30811,7 +30827,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30819,7 +30835,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30827,7 +30843,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30835,7 +30851,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30843,7 +30859,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30851,7 +30867,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30859,7 +30875,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30867,7 +30883,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30875,7 +30891,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30883,7 +30899,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30891,7 +30907,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30899,7 +30915,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30907,7 +30923,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30915,7 +30931,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30923,7 +30939,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30931,7 +30947,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30939,7 +30955,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -30947,7 +30963,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -30955,7 +30971,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -30963,7 +30979,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -30971,7 +30987,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -30979,7 +30995,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -30987,7 +31003,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -30995,7 +31011,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -31003,7 +31019,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -31011,7 +31027,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -31019,7 +31035,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -31027,7 +31043,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -31035,7 +31051,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -31043,7 +31059,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -31051,7 +31067,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -31059,7 +31075,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -31067,7 +31083,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -31075,7 +31091,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -31083,7 +31099,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -31091,7 +31107,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -31099,7 +31115,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -31107,7 +31123,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -31115,7 +31131,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -31123,7 +31139,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -31131,7 +31147,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -31139,7 +31155,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -31147,7 +31163,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -31155,7 +31171,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -31163,7 +31179,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -31171,7 +31187,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -31179,7 +31195,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -31187,7 +31203,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -31195,7 +31211,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -31203,7 +31219,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -31211,7 +31227,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -31219,7 +31235,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -31227,7 +31243,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -31235,7 +31251,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -31243,7 +31259,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -31251,7 +31267,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -31259,7 +31275,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -31267,7 +31283,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -31275,7 +31291,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -31283,7 +31299,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -31291,7 +31307,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -31299,7 +31315,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -31307,7 +31323,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -31315,7 +31331,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -31323,7 +31339,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -31331,7 +31347,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -31339,7 +31355,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -31347,7 +31363,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -31355,7 +31371,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -31363,7 +31379,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -31371,7 +31387,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -31379,7 +31395,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -31387,7 +31403,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -31395,7 +31411,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -31403,7 +31419,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -31411,7 +31427,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -31419,7 +31435,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31427,7 +31443,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31435,7 +31451,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31443,7 +31459,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31451,7 +31467,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31459,7 +31475,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31467,7 +31483,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31475,7 +31491,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31483,7 +31499,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31491,7 +31507,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31499,7 +31515,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31507,7 +31523,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31515,7 +31531,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31523,7 +31539,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31531,7 +31547,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31539,7 +31555,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31547,7 +31563,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31555,7 +31571,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31563,7 +31579,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31571,7 +31587,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31579,7 +31595,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31587,7 +31603,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31595,7 +31611,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31603,7 +31619,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31611,7 +31627,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31619,7 +31635,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31627,7 +31643,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31635,7 +31651,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31643,7 +31659,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31651,7 +31667,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31659,7 +31675,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31667,7 +31683,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31675,7 +31691,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31683,7 +31699,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31691,7 +31707,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31699,7 +31715,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31707,7 +31723,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31715,7 +31731,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31723,7 +31739,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31731,7 +31747,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31739,7 +31755,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31747,7 +31763,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31755,7 +31771,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31763,7 +31779,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31771,7 +31787,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31779,7 +31795,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31787,7 +31803,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31795,7 +31811,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31803,7 +31819,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31811,7 +31827,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31819,7 +31835,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31827,7 +31843,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31835,7 +31851,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31843,7 +31859,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31851,7 +31867,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31859,7 +31875,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31867,7 +31883,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31875,7 +31891,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31883,7 +31899,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31891,7 +31907,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31899,7 +31915,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31907,7 +31923,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31915,7 +31931,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31923,7 +31939,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31931,7 +31947,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31939,7 +31955,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -31947,7 +31963,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -31955,7 +31971,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -31963,7 +31979,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -31971,7 +31987,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -31979,7 +31995,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -31987,7 +32003,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -31995,7 +32011,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -32003,7 +32019,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -32011,7 +32027,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -32019,7 +32035,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -32027,7 +32043,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -32035,7 +32051,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -32043,7 +32059,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -32051,7 +32067,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -32059,7 +32075,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -32067,7 +32083,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -32075,7 +32091,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -32083,7 +32099,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -32091,7 +32107,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -32099,7 +32115,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -32107,7 +32123,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -32115,7 +32131,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -32123,7 +32139,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -32131,7 +32147,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -32139,7 +32155,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -32147,7 +32163,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -32155,7 +32171,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -32163,7 +32179,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -32171,7 +32187,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -32179,7 +32195,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -32187,7 +32203,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -32195,7 +32211,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -36987,7 +37003,7 @@
     </row>
     <row r="786">
       <c r="A786" t="s">
-        <v>1061</v>
+        <v>869</v>
       </c>
       <c r="B786" t="n">
         <v>2.18684210526316</v>
@@ -36998,7 +37014,7 @@
         <v>1062</v>
       </c>
       <c r="B787" t="n">
-        <v>2.165</v>
+        <v>2.17142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -37014,7 +37014,7 @@
         <v>1062</v>
       </c>
       <c r="B787" t="n">
-        <v>2.17142857142857</v>
+        <v>2.1775</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -30639,7 +30639,7 @@
         <v>859</v>
       </c>
       <c r="B680" t="n">
-        <v>6.60527201467838</v>
+        <v>6.59025228159649</v>
       </c>
     </row>
     <row r="681">
@@ -30647,7 +30647,7 @@
         <v>860</v>
       </c>
       <c r="B681" t="n">
-        <v>7.07596290078754</v>
+        <v>7.04803096713889</v>
       </c>
     </row>
     <row r="682">
@@ -30655,7 +30655,7 @@
         <v>861</v>
       </c>
       <c r="B682" t="n">
-        <v>7.12088024404497</v>
+        <v>7.07891650026064</v>
       </c>
     </row>
     <row r="683">
@@ -30663,7 +30663,7 @@
         <v>862</v>
       </c>
       <c r="B683" t="n">
-        <v>5.46313566226212</v>
+        <v>5.43907585767737</v>
       </c>
     </row>
     <row r="684">
@@ -30671,7 +30671,7 @@
         <v>863</v>
       </c>
       <c r="B684" t="n">
-        <v>5.7920508347673</v>
+        <v>5.78642790739566</v>
       </c>
     </row>
     <row r="685">
@@ -30679,7 +30679,7 @@
         <v>864</v>
       </c>
       <c r="B685" t="n">
-        <v>5.38721585127885</v>
+        <v>5.39889813604741</v>
       </c>
     </row>
     <row r="686">
@@ -30687,7 +30687,7 @@
         <v>865</v>
       </c>
       <c r="B686" t="n">
-        <v>3.70539960508897</v>
+        <v>3.56512295329451</v>
       </c>
     </row>
     <row r="687">
@@ -30695,7 +30695,7 @@
         <v>866</v>
       </c>
       <c r="B687" t="n">
-        <v>4.10545304166731</v>
+        <v>3.8000849937736</v>
       </c>
     </row>
     <row r="688">
@@ -30703,7 +30703,15 @@
         <v>867</v>
       </c>
       <c r="B688" t="n">
-        <v>3.7126380534412</v>
+        <v>3.25874915787752</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>868</v>
+      </c>
+      <c r="B689" t="n">
+        <v>5.01122972130058</v>
       </c>
     </row>
   </sheetData>
@@ -37014,7 +37022,7 @@
         <v>1062</v>
       </c>
       <c r="B787" t="n">
-        <v>2.1775</v>
+        <v>2.17375</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="1064">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -3209,6 +3209,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dec 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 2026</t>
   </si>
 </sst>
 </file>
@@ -37022,7 +37025,15 @@
         <v>1062</v>
       </c>
       <c r="B787" t="n">
-        <v>2.17375</v>
+        <v>2.16904761904762</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B788" t="n">
+        <v>2.19666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -2632,6 +2632,9 @@
     <t xml:space="preserve">Nov 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Dec 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -3206,9 +3209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jun 1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Jan 2026</t>
@@ -18754,6 +18754,14 @@
         <v>21135.5</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>870</v>
+      </c>
+      <c r="B601" t="n">
+        <v>21143.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18774,7 +18782,7 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2">
@@ -23567,6 +23575,14 @@
       </c>
       <c r="B600" t="n">
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>870</v>
+      </c>
+      <c r="B601" t="n">
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -23589,7 +23605,7 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2">
@@ -25186,7 +25202,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B201"/>
     </row>
@@ -25210,12 +25226,12 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -25223,7 +25239,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -25231,7 +25247,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -25239,7 +25255,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -25247,7 +25263,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -25255,7 +25271,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -25263,7 +25279,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -25271,7 +25287,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -25279,7 +25295,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -25287,7 +25303,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -25295,7 +25311,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -25303,7 +25319,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -25311,7 +25327,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -25319,7 +25335,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -25327,7 +25343,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -25335,7 +25351,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -25343,7 +25359,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -25351,7 +25367,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -25359,7 +25375,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25367,7 +25383,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25375,7 +25391,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25383,7 +25399,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25391,7 +25407,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25399,7 +25415,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25407,7 +25423,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25415,7 +25431,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25423,7 +25439,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25431,7 +25447,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25439,7 +25455,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25447,7 +25463,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25455,7 +25471,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25463,7 +25479,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25471,7 +25487,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25479,7 +25495,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25487,7 +25503,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25495,7 +25511,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25503,7 +25519,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25511,7 +25527,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25519,7 +25535,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25527,7 +25543,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25535,7 +25551,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25543,7 +25559,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25551,7 +25567,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25559,7 +25575,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25567,7 +25583,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25575,7 +25591,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25583,7 +25599,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25591,7 +25607,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25599,7 +25615,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25607,7 +25623,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25615,7 +25631,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25623,7 +25639,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25631,7 +25647,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25639,7 +25655,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25647,7 +25663,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25655,7 +25671,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25663,7 +25679,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25671,7 +25687,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25679,7 +25695,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25687,7 +25703,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25695,7 +25711,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25703,7 +25719,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25711,7 +25727,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25719,7 +25735,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25727,7 +25743,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25735,7 +25751,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25743,7 +25759,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25751,7 +25767,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25759,7 +25775,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25767,7 +25783,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25775,7 +25791,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25783,7 +25799,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25791,7 +25807,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25799,7 +25815,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25807,7 +25823,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25815,7 +25831,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25823,7 +25839,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25831,7 +25847,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25839,7 +25855,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25847,7 +25863,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25855,7 +25871,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25863,7 +25879,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25871,7 +25887,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25879,7 +25895,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25887,7 +25903,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25895,7 +25911,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25903,7 +25919,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25911,7 +25927,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25919,7 +25935,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25927,7 +25943,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -30734,15 +30750,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30750,7 +30766,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30758,7 +30774,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30766,7 +30782,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30774,7 +30790,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30782,7 +30798,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30790,7 +30806,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30798,7 +30814,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30806,7 +30822,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30814,7 +30830,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30822,7 +30838,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30830,7 +30846,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30838,7 +30854,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30846,7 +30862,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30854,7 +30870,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30862,7 +30878,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30870,7 +30886,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30878,7 +30894,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30886,7 +30902,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30894,7 +30910,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30902,7 +30918,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30910,7 +30926,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30918,7 +30934,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30926,7 +30942,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30934,7 +30950,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30942,7 +30958,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30950,7 +30966,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30958,7 +30974,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30966,7 +30982,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -30974,7 +30990,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -30982,7 +30998,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -30990,7 +31006,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -30998,7 +31014,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -31006,7 +31022,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -31014,7 +31030,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -31022,7 +31038,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -31030,7 +31046,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -31038,7 +31054,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -31046,7 +31062,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -31054,7 +31070,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -31062,7 +31078,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -31070,7 +31086,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -31078,7 +31094,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -31086,7 +31102,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -31094,7 +31110,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -31102,7 +31118,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -31110,7 +31126,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -31118,7 +31134,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -31126,7 +31142,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -31134,7 +31150,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -31142,7 +31158,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -31150,7 +31166,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -31158,7 +31174,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -31166,7 +31182,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -31174,7 +31190,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -31182,7 +31198,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -31190,7 +31206,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -31198,7 +31214,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -31206,7 +31222,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -31214,7 +31230,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -31222,7 +31238,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -31230,7 +31246,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -31238,7 +31254,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -31246,7 +31262,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -31254,7 +31270,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -31262,7 +31278,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -31270,7 +31286,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -31278,7 +31294,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -31286,7 +31302,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -31294,7 +31310,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -31302,7 +31318,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -31310,7 +31326,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -31318,7 +31334,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -31326,7 +31342,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -31334,7 +31350,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -31342,7 +31358,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -31350,7 +31366,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -31358,7 +31374,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -31366,7 +31382,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -31374,7 +31390,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -31382,7 +31398,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -31390,7 +31406,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -31398,7 +31414,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -31406,7 +31422,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -31414,7 +31430,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -31422,7 +31438,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -31430,7 +31446,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -31438,7 +31454,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -31446,7 +31462,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31454,7 +31470,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31462,7 +31478,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31470,7 +31486,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31478,7 +31494,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31486,7 +31502,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31494,7 +31510,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31502,7 +31518,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31510,7 +31526,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31518,7 +31534,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31526,7 +31542,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31534,7 +31550,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31542,7 +31558,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31550,7 +31566,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31558,7 +31574,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31566,7 +31582,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31574,7 +31590,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31582,7 +31598,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31590,7 +31606,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31598,7 +31614,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31606,7 +31622,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31614,7 +31630,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31622,7 +31638,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31630,7 +31646,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31638,7 +31654,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31646,7 +31662,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31654,7 +31670,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31662,7 +31678,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31670,7 +31686,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31678,7 +31694,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31686,7 +31702,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31694,7 +31710,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31702,7 +31718,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31710,7 +31726,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31718,7 +31734,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31726,7 +31742,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31734,7 +31750,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31742,7 +31758,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31750,7 +31766,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31758,7 +31774,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31766,7 +31782,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31774,7 +31790,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31782,7 +31798,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31790,7 +31806,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31798,7 +31814,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31806,7 +31822,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31814,7 +31830,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31822,7 +31838,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31830,7 +31846,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31838,7 +31854,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31846,7 +31862,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31854,7 +31870,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31862,7 +31878,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31870,7 +31886,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31878,7 +31894,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31886,7 +31902,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31894,7 +31910,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31902,7 +31918,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31910,7 +31926,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31918,7 +31934,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31926,7 +31942,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31934,7 +31950,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31942,7 +31958,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31950,7 +31966,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31958,7 +31974,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31966,7 +31982,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -31974,7 +31990,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -31982,7 +31998,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -31990,7 +32006,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -31998,7 +32014,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -32006,7 +32022,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -32014,7 +32030,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -32022,7 +32038,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -32030,7 +32046,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -32038,7 +32054,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -32046,7 +32062,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -32054,7 +32070,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -32062,7 +32078,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -32070,7 +32086,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -32078,7 +32094,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -32086,7 +32102,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -32094,7 +32110,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -32102,7 +32118,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -32110,7 +32126,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -32118,7 +32134,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -32126,7 +32142,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -32134,7 +32150,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -32142,7 +32158,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -32150,7 +32166,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -32158,7 +32174,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -32166,7 +32182,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -32174,7 +32190,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -32182,7 +32198,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -32190,7 +32206,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -32198,7 +32214,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -32206,7 +32222,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -32214,7 +32230,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -32222,7 +32238,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -37022,7 +37038,7 @@
     </row>
     <row r="787">
       <c r="A787" t="s">
-        <v>1062</v>
+        <v>870</v>
       </c>
       <c r="B787" t="n">
         <v>2.16904761904762</v>
@@ -37033,7 +37049,7 @@
         <v>1063</v>
       </c>
       <c r="B788" t="n">
-        <v>2.19666666666667</v>
+        <v>2.20125</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -30733,6 +30733,14 @@
         <v>5.01122972130058</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>869</v>
+      </c>
+      <c r="B690" t="n">
+        <v>4.65999663167655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -37049,7 +37057,7 @@
         <v>1063</v>
       </c>
       <c r="B788" t="n">
-        <v>2.20125</v>
+        <v>2.19538461538462</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -18479,7 +18479,7 @@
         <v>835</v>
       </c>
       <c r="B566" t="n">
-        <v>20113.5</v>
+        <v>20097.5</v>
       </c>
     </row>
     <row r="567">
@@ -18487,7 +18487,7 @@
         <v>836</v>
       </c>
       <c r="B567" t="n">
-        <v>20153.3</v>
+        <v>20143.3</v>
       </c>
     </row>
     <row r="568">
@@ -18495,7 +18495,7 @@
         <v>837</v>
       </c>
       <c r="B568" t="n">
-        <v>20214.1</v>
+        <v>20214.7</v>
       </c>
     </row>
     <row r="569">
@@ -18503,7 +18503,7 @@
         <v>838</v>
       </c>
       <c r="B569" t="n">
-        <v>20257.8</v>
+        <v>20242.1</v>
       </c>
     </row>
     <row r="570">
@@ -18511,7 +18511,7 @@
         <v>839</v>
       </c>
       <c r="B570" t="n">
-        <v>20246.7</v>
+        <v>20253.9</v>
       </c>
     </row>
     <row r="571">
@@ -18519,7 +18519,7 @@
         <v>840</v>
       </c>
       <c r="B571" t="n">
-        <v>20332.9</v>
+        <v>20325.1</v>
       </c>
     </row>
     <row r="572">
@@ -18527,7 +18527,7 @@
         <v>841</v>
       </c>
       <c r="B572" t="n">
-        <v>20352.1</v>
+        <v>20356.9</v>
       </c>
     </row>
     <row r="573">
@@ -18535,7 +18535,7 @@
         <v>842</v>
       </c>
       <c r="B573" t="n">
-        <v>20412.1</v>
+        <v>20423.7</v>
       </c>
     </row>
     <row r="574">
@@ -18543,7 +18543,7 @@
         <v>843</v>
       </c>
       <c r="B574" t="n">
-        <v>20465.3</v>
+        <v>20473.1</v>
       </c>
     </row>
     <row r="575">
@@ -18551,7 +18551,7 @@
         <v>844</v>
       </c>
       <c r="B575" t="n">
-        <v>20493.9</v>
+        <v>20501.8</v>
       </c>
     </row>
     <row r="576">
@@ -18559,7 +18559,7 @@
         <v>845</v>
       </c>
       <c r="B576" t="n">
-        <v>20518.5</v>
+        <v>20522.2</v>
       </c>
     </row>
     <row r="577">
@@ -18567,7 +18567,7 @@
         <v>846</v>
       </c>
       <c r="B577" t="n">
-        <v>20532.8</v>
+        <v>20530.6</v>
       </c>
     </row>
     <row r="578">
@@ -18575,7 +18575,7 @@
         <v>847</v>
       </c>
       <c r="B578" t="n">
-        <v>20577.1</v>
+        <v>20552.1</v>
       </c>
     </row>
     <row r="579">
@@ -18583,7 +18583,7 @@
         <v>848</v>
       </c>
       <c r="B579" t="n">
-        <v>20607.7</v>
+        <v>20593.8</v>
       </c>
     </row>
     <row r="580">
@@ -18591,7 +18591,7 @@
         <v>849</v>
       </c>
       <c r="B580" t="n">
-        <v>20614.5</v>
+        <v>20620.8</v>
       </c>
     </row>
     <row r="581">
@@ -18599,7 +18599,7 @@
         <v>850</v>
       </c>
       <c r="B581" t="n">
-        <v>20700.5</v>
+        <v>20674.9</v>
       </c>
     </row>
     <row r="582">
@@ -18607,7 +18607,7 @@
         <v>851</v>
       </c>
       <c r="B582" t="n">
-        <v>20698.3</v>
+        <v>20707.2</v>
       </c>
     </row>
     <row r="583">
@@ -18615,7 +18615,7 @@
         <v>852</v>
       </c>
       <c r="B583" t="n">
-        <v>20715.9</v>
+        <v>20708.1</v>
       </c>
     </row>
     <row r="584">
@@ -18623,7 +18623,7 @@
         <v>853</v>
       </c>
       <c r="B584" t="n">
-        <v>20712.9</v>
+        <v>20725.1</v>
       </c>
     </row>
     <row r="585">
@@ -18631,7 +18631,7 @@
         <v>854</v>
       </c>
       <c r="B585" t="n">
-        <v>20742.6</v>
+        <v>20760.4</v>
       </c>
     </row>
     <row r="586">
@@ -18639,7 +18639,7 @@
         <v>855</v>
       </c>
       <c r="B586" t="n">
-        <v>20779.3</v>
+        <v>20796</v>
       </c>
     </row>
     <row r="587">
@@ -18647,7 +18647,7 @@
         <v>856</v>
       </c>
       <c r="B587" t="n">
-        <v>20782.6</v>
+        <v>20804.9</v>
       </c>
     </row>
     <row r="588">
@@ -18655,7 +18655,7 @@
         <v>857</v>
       </c>
       <c r="B588" t="n">
-        <v>20826.4</v>
+        <v>20842</v>
       </c>
     </row>
     <row r="589">
@@ -18663,7 +18663,7 @@
         <v>858</v>
       </c>
       <c r="B589" t="n">
-        <v>20917.4</v>
+        <v>20934.7</v>
       </c>
     </row>
     <row r="590">
@@ -18671,7 +18671,7 @@
         <v>859</v>
       </c>
       <c r="B590" t="n">
-        <v>20993.4</v>
+        <v>20986.9</v>
       </c>
     </row>
     <row r="591">
@@ -18679,7 +18679,7 @@
         <v>860</v>
       </c>
       <c r="B591" t="n">
-        <v>20994.5</v>
+        <v>20985.5</v>
       </c>
     </row>
     <row r="592">
@@ -18687,7 +18687,7 @@
         <v>861</v>
       </c>
       <c r="B592" t="n">
-        <v>20961.9</v>
+        <v>20964.3</v>
       </c>
     </row>
     <row r="593">
@@ -18695,7 +18695,7 @@
         <v>862</v>
       </c>
       <c r="B593" t="n">
-        <v>20969.3</v>
+        <v>20966.7</v>
       </c>
     </row>
     <row r="594">
@@ -18703,7 +18703,7 @@
         <v>863</v>
       </c>
       <c r="B594" t="n">
-        <v>20978.1</v>
+        <v>20974.4</v>
       </c>
     </row>
     <row r="595">
@@ -18711,7 +18711,7 @@
         <v>864</v>
       </c>
       <c r="B595" t="n">
-        <v>21061.2</v>
+        <v>21040.7</v>
       </c>
     </row>
     <row r="596">
@@ -18719,7 +18719,7 @@
         <v>865</v>
       </c>
       <c r="B596" t="n">
-        <v>21020.4</v>
+        <v>21018.3</v>
       </c>
     </row>
     <row r="597">
@@ -18727,7 +18727,7 @@
         <v>866</v>
       </c>
       <c r="B597" t="n">
-        <v>20954.9</v>
+        <v>20956.6</v>
       </c>
     </row>
     <row r="598">
@@ -18735,7 +18735,7 @@
         <v>867</v>
       </c>
       <c r="B598" t="n">
-        <v>21015.3</v>
+        <v>21009.9</v>
       </c>
     </row>
     <row r="599">
@@ -18743,7 +18743,7 @@
         <v>868</v>
       </c>
       <c r="B599" t="n">
-        <v>21081.9</v>
+        <v>21083.6</v>
       </c>
     </row>
     <row r="600">
@@ -18751,7 +18751,7 @@
         <v>869</v>
       </c>
       <c r="B600" t="n">
-        <v>21135.5</v>
+        <v>21135.9</v>
       </c>
     </row>
     <row r="601">
@@ -18759,7 +18759,7 @@
         <v>870</v>
       </c>
       <c r="B601" t="n">
-        <v>21143.7</v>
+        <v>21146</v>
       </c>
     </row>
   </sheetData>
@@ -23310,7 +23310,7 @@
         <v>836</v>
       </c>
       <c r="B567" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="568">
@@ -23318,7 +23318,7 @@
         <v>837</v>
       </c>
       <c r="B568" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="569">
@@ -23350,7 +23350,7 @@
         <v>841</v>
       </c>
       <c r="B572" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="573">
@@ -23358,7 +23358,7 @@
         <v>842</v>
       </c>
       <c r="B573" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="574">
@@ -23382,7 +23382,7 @@
         <v>845</v>
       </c>
       <c r="B576" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="577">
@@ -23454,7 +23454,7 @@
         <v>854</v>
       </c>
       <c r="B585" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="586">
@@ -23462,7 +23462,7 @@
         <v>855</v>
       </c>
       <c r="B586" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="587">
@@ -23478,7 +23478,7 @@
         <v>857</v>
       </c>
       <c r="B588" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="589">
@@ -23494,7 +23494,7 @@
         <v>859</v>
       </c>
       <c r="B590" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="591">
@@ -23510,7 +23510,7 @@
         <v>861</v>
       </c>
       <c r="B592" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="593">
@@ -23574,7 +23574,7 @@
         <v>869</v>
       </c>
       <c r="B600" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="601">
@@ -25117,7 +25117,7 @@
         <v>250</v>
       </c>
       <c r="B190" t="n">
-        <v>119.207749884674</v>
+        <v>119.257834274797</v>
       </c>
     </row>
     <row r="191">
@@ -25125,7 +25125,7 @@
         <v>251</v>
       </c>
       <c r="B191" t="n">
-        <v>118.698317153593</v>
+        <v>118.730128195643</v>
       </c>
     </row>
     <row r="192">
@@ -25133,7 +25133,7 @@
         <v>252</v>
       </c>
       <c r="B192" t="n">
-        <v>117.997337884516</v>
+        <v>117.950719711626</v>
       </c>
     </row>
     <row r="193">
@@ -25141,7 +25141,7 @@
         <v>253</v>
       </c>
       <c r="B193" t="n">
-        <v>117.452750173856</v>
+        <v>117.434813970036</v>
       </c>
     </row>
     <row r="194">
@@ -25149,7 +25149,7 @@
         <v>254</v>
       </c>
       <c r="B194" t="n">
-        <v>117.822111253687</v>
+        <v>117.884296878415</v>
       </c>
     </row>
     <row r="195">
@@ -25157,7 +25157,7 @@
         <v>255</v>
       </c>
       <c r="B195" t="n">
-        <v>118.180382421552</v>
+        <v>118.227014891239</v>
       </c>
     </row>
     <row r="196">
@@ -25165,7 +25165,7 @@
         <v>256</v>
       </c>
       <c r="B196" t="n">
-        <v>118.918531111211</v>
+        <v>118.829363454637</v>
       </c>
     </row>
     <row r="197">
@@ -25173,7 +25173,7 @@
         <v>257</v>
       </c>
       <c r="B197" t="n">
-        <v>119.194180378208</v>
+        <v>119.089045342401</v>
       </c>
     </row>
     <row r="198">
@@ -25181,7 +25181,7 @@
         <v>258</v>
       </c>
       <c r="B198" t="n">
-        <v>119.031704628132</v>
+        <v>119.056480559038</v>
       </c>
     </row>
     <row r="199">
@@ -25189,7 +25189,7 @@
         <v>259</v>
       </c>
       <c r="B199" t="n">
-        <v>118.366937211746</v>
+        <v>118.41730468167</v>
       </c>
     </row>
     <row r="200">
@@ -25197,7 +25197,7 @@
         <v>260</v>
       </c>
       <c r="B200" t="n">
-        <v>119.163970497185</v>
+        <v>119.174943795963</v>
       </c>
     </row>
     <row r="201">
@@ -37057,7 +37057,7 @@
         <v>1063</v>
       </c>
       <c r="B788" t="n">
-        <v>2.19538461538462</v>
+        <v>2.19166666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="1065">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -3212,6 +3212,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jan 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb 2026</t>
   </si>
 </sst>
 </file>
@@ -37057,7 +37060,15 @@
         <v>1063</v>
       </c>
       <c r="B788" t="n">
-        <v>2.19166666666667</v>
+        <v>2.19095238095238</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B789" t="n">
+        <v>2.19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="1066">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -2635,6 +2635,9 @@
     <t xml:space="preserve">Dec 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Jan 2026</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnempRate</t>
   </si>
   <si>
@@ -2644,6 +2647,9 @@
     <t xml:space="preserve">2025 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">2026 Q1</t>
+  </si>
+  <si>
     <t xml:space="preserve">M2growth</t>
   </si>
   <si>
@@ -3209,9 +3215,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jun 1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2026</t>
   </si>
   <si>
     <t xml:space="preserve">Feb 2026</t>
@@ -18765,6 +18768,14 @@
         <v>21146</v>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>871</v>
+      </c>
+      <c r="B602" t="n">
+        <v>21121.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18785,7 +18796,7 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2">
@@ -23586,6 +23597,14 @@
       </c>
       <c r="B601" t="n">
         <v>6.8</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>871</v>
+      </c>
+      <c r="B602" t="n">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -23608,7 +23627,7 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2">
@@ -25205,9 +25224,15 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B201"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>875</v>
+      </c>
+      <c r="B202"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25229,12 +25254,12 @@
         <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B2" t="n">
         <v>12.9667760753128</v>
@@ -25242,7 +25267,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B3" t="n">
         <v>15.0136942094219</v>
@@ -25250,7 +25275,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B4" t="n">
         <v>15.7173673795166</v>
@@ -25258,7 +25283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B5" t="n">
         <v>15.0083394292738</v>
@@ -25266,7 +25291,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B6" t="n">
         <v>14.1631513522075</v>
@@ -25274,7 +25299,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B7" t="n">
         <v>14.3196627658395</v>
@@ -25282,7 +25307,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B8" t="n">
         <v>14.5659126107761</v>
@@ -25290,7 +25315,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B9" t="n">
         <v>11.0934019859703</v>
@@ -25298,7 +25323,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B10" t="n">
         <v>11.5193520347377</v>
@@ -25306,7 +25331,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B11" t="n">
         <v>10.3976063805748</v>
@@ -25314,7 +25339,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B12" t="n">
         <v>10.203544223433</v>
@@ -25322,7 +25347,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B13" t="n">
         <v>8.25370377873824</v>
@@ -25330,7 +25355,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B14" t="n">
         <v>6.74941660698323</v>
@@ -25338,7 +25363,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B15" t="n">
         <v>6.99352943674983</v>
@@ -25346,7 +25371,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B16" t="n">
         <v>8.54641293280502</v>
@@ -25354,7 +25379,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B17" t="n">
         <v>8.36923199167487</v>
@@ -25362,7 +25387,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B18" t="n">
         <v>8.27326635899438</v>
@@ -25370,7 +25395,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B19" t="n">
         <v>9.85826112039194</v>
@@ -25378,7 +25403,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B20" t="n">
         <v>9.91121604952369</v>
@@ -25386,7 +25411,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B21" t="n">
         <v>10.5072207560502</v>
@@ -25394,7 +25419,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B22" t="n">
         <v>7.79066458038734</v>
@@ -25402,7 +25427,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B23" t="n">
         <v>10.9032596283834</v>
@@ -25410,7 +25435,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B24" t="n">
         <v>8.19610135662233</v>
@@ -25418,7 +25443,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B25" t="n">
         <v>9.07734774781358</v>
@@ -25426,7 +25451,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B26" t="n">
         <v>8.50235678691241</v>
@@ -25434,7 +25459,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B27" t="n">
         <v>9.00143117812621</v>
@@ -25442,7 +25467,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B28" t="n">
         <v>9.09344352882898</v>
@@ -25450,7 +25475,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B29" t="n">
         <v>8.12556120408371</v>
@@ -25458,7 +25483,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B30" t="n">
         <v>10.7444231936402</v>
@@ -25466,7 +25491,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B31" t="n">
         <v>10.0971199004294</v>
@@ -25474,7 +25499,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B32" t="n">
         <v>11.4278274718587</v>
@@ -25482,7 +25507,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B33" t="n">
         <v>12.506561942725</v>
@@ -25490,7 +25515,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B34" t="n">
         <v>14.8525484100527</v>
@@ -25498,7 +25523,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B35" t="n">
         <v>13.9647049646935</v>
@@ -25506,7 +25531,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B36" t="n">
         <v>13.8193035567392</v>
@@ -25514,7 +25539,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B37" t="n">
         <v>14.3299854004434</v>
@@ -25522,7 +25547,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B38" t="n">
         <v>15.3018079241173</v>
@@ -25530,7 +25555,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B39" t="n">
         <v>15.0270385091154</v>
@@ -25538,7 +25563,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B40" t="n">
         <v>13.2518711756956</v>
@@ -25546,7 +25571,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B41" t="n">
         <v>13.1332186179338</v>
@@ -25554,7 +25579,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B42" t="n">
         <v>12.6578401751251</v>
@@ -25562,7 +25587,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B43" t="n">
         <v>11.2954913894953</v>
@@ -25570,7 +25595,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B44" t="n">
         <v>12.7456975920676</v>
@@ -25578,7 +25603,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B45" t="n">
         <v>12.0988566109835</v>
@@ -25586,7 +25611,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B46" t="n">
         <v>12.4954011343489</v>
@@ -25594,7 +25619,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B47" t="n">
         <v>14.2289904200083</v>
@@ -25602,7 +25627,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B48" t="n">
         <v>13.4484012949889</v>
@@ -25610,7 +25635,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B49" t="n">
         <v>15.6988273068042</v>
@@ -25618,7 +25643,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B50" t="n">
         <v>14.2845925451855</v>
@@ -25626,7 +25651,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B51" t="n">
         <v>13.7513624713095</v>
@@ -25634,7 +25659,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B52" t="n">
         <v>16.5561760195999</v>
@@ -25642,7 +25667,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B53" t="n">
         <v>15.9924726433944</v>
@@ -25650,7 +25675,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B54" t="n">
         <v>16.8425831874094</v>
@@ -25658,7 +25683,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B55" t="n">
         <v>16.5276746861153</v>
@@ -25666,7 +25691,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B56" t="n">
         <v>16.4698895002538</v>
@@ -25674,7 +25699,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B57" t="n">
         <v>17.2134250823613</v>
@@ -25682,7 +25707,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B58" t="n">
         <v>15.6816081666631</v>
@@ -25690,7 +25715,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B59" t="n">
         <v>14.8028853950233</v>
@@ -25698,7 +25723,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B60" t="n">
         <v>15.2426482221366</v>
@@ -25706,7 +25731,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B61" t="n">
         <v>15.6902851909184</v>
@@ -25714,7 +25739,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B62" t="n">
         <v>16.5013128950056</v>
@@ -25722,7 +25747,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B63" t="n">
         <v>17.144059922985</v>
@@ -25730,7 +25755,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B64" t="n">
         <v>17.3090733250565</v>
@@ -25738,7 +25763,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B65" t="n">
         <v>19.1915260629344</v>
@@ -25746,7 +25771,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B66" t="n">
         <v>22.7683604016704</v>
@@ -25754,7 +25779,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B67" t="n">
         <v>23.3483213053937</v>
@@ -25762,7 +25787,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B68" t="n">
         <v>23.7330017100268</v>
@@ -25770,7 +25795,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B69" t="n">
         <v>24.5746121277929</v>
@@ -25778,7 +25803,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B70" t="n">
         <v>25.299565253288</v>
@@ -25786,7 +25811,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B71" t="n">
         <v>25.0912717707172</v>
@@ -25794,7 +25819,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B72" t="n">
         <v>23.9521568788769</v>
@@ -25802,7 +25827,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B73" t="n">
         <v>21.1869735832747</v>
@@ -25810,7 +25835,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B74" t="n">
         <v>20.6527071997174</v>
@@ -25818,7 +25843,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B75" t="n">
         <v>20.1659943690496</v>
@@ -25826,7 +25851,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B76" t="n">
         <v>18.9358160000968</v>
@@ -25834,7 +25859,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B77" t="n">
         <v>16.9203967093089</v>
@@ -25842,7 +25867,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B78" t="n">
         <v>12.907810848208</v>
@@ -25850,7 +25875,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B79" t="n">
         <v>12.4545658937996</v>
@@ -25858,7 +25883,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B80" t="n">
         <v>13.2184526911685</v>
@@ -25866,7 +25891,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B81" t="n">
         <v>14.2594274489356</v>
@@ -25874,7 +25899,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B82" t="n">
         <v>14.1362614616155</v>
@@ -25882,7 +25907,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B83" t="n">
         <v>17.5108308988957</v>
@@ -25890,7 +25915,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B84" t="n">
         <v>17.8203047316368</v>
@@ -25898,7 +25923,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B85" t="n">
         <v>19.6199365813437</v>
@@ -25906,7 +25931,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B86" t="n">
         <v>18.3178769926645</v>
@@ -25914,7 +25939,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B87" t="n">
         <v>16.4922800191838</v>
@@ -25922,7 +25947,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B88" t="n">
         <v>18.0934981429238</v>
@@ -25930,7 +25955,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B89" t="n">
         <v>14.9717615097796</v>
@@ -25938,7 +25963,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B90" t="n">
         <v>15.137570465284</v>
@@ -25946,7 +25971,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B91" t="n">
         <v>17.0502997395172</v>
@@ -30761,15 +30786,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B2" t="n">
         <v>3.02666666666667</v>
@@ -30777,7 +30802,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B3" t="n">
         <v>2.66</v>
@@ -30785,7 +30810,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B4" t="n">
         <v>1.93285714285714</v>
@@ -30793,7 +30818,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B5" t="n">
         <v>2.59368421052632</v>
@@ -30801,7 +30826,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B6" t="n">
         <v>3.37809523809524</v>
@@ -30809,7 +30834,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B7" t="n">
         <v>3.61809523809524</v>
@@ -30817,7 +30842,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B8" t="n">
         <v>3.19952380952381</v>
@@ -30825,7 +30850,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B9" t="n">
         <v>3.0585</v>
@@ -30833,7 +30858,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B10" t="n">
         <v>3.20818181818182</v>
@@ -30841,7 +30866,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B11" t="n">
         <v>3.27578947368421</v>
@@ -30849,7 +30874,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B12" t="n">
         <v>3.18227272727273</v>
@@ -30857,7 +30882,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B13" t="n">
         <v>2.79714285714286</v>
@@ -30865,7 +30890,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B14" t="n">
         <v>2.6</v>
@@ -30873,7 +30898,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B15" t="n">
         <v>2.4995652173913</v>
@@ -30881,7 +30906,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B16" t="n">
         <v>2.381</v>
@@ -30889,7 +30914,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B17" t="n">
         <v>2.52666666666667</v>
@@ -30897,7 +30922,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B18" t="n">
         <v>2.39909090909091</v>
@@ -30905,7 +30930,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B19" t="n">
         <v>2.73526315789474</v>
@@ -30913,7 +30938,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B20" t="n">
         <v>3.06681818181818</v>
@@ -30921,7 +30946,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B21" t="n">
         <v>3.0855</v>
@@ -30929,7 +30954,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B22" t="n">
         <v>3.10681818181818</v>
@@ -30937,7 +30962,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B23" t="n">
         <v>3.07421052631579</v>
@@ -30945,7 +30970,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B24" t="n">
         <v>3.31772727272727</v>
@@ -30953,7 +30978,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B25" t="n">
         <v>4.24</v>
@@ -30961,7 +30986,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B26" t="n">
         <v>5.3725</v>
@@ -30969,7 +30994,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B27" t="n">
         <v>5.12</v>
@@ -30977,7 +31002,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B28" t="n">
         <v>5.01055555555556</v>
@@ -30985,7 +31010,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B29" t="n">
         <v>4.515</v>
@@ -30993,7 +31018,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B30" t="n">
         <v>3.85909090909091</v>
@@ -31001,7 +31026,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B31" t="n">
         <v>3.835</v>
@@ -31009,7 +31034,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B32" t="n">
         <v>3.83181818181818</v>
@@ -31017,7 +31042,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B33" t="n">
         <v>3.6535</v>
@@ -31025,7 +31050,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B34" t="n">
         <v>3.61904761904762</v>
@@ -31033,7 +31058,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B35" t="n">
         <v>3.5955</v>
@@ -31041,7 +31066,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B36" t="n">
         <v>3.37176470588235</v>
@@ -31049,7 +31074,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B37" t="n">
         <v>3.21842105263158</v>
@@ -31057,7 +31082,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B38" t="n">
         <v>3.37227272727273</v>
@@ -31065,7 +31090,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B39" t="n">
         <v>3.60190476190476</v>
@@ -31073,7 +31098,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B40" t="n">
         <v>3.688</v>
@@ -31081,7 +31106,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B41" t="n">
         <v>3.55136363636364</v>
@@ -31089,7 +31114,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B42" t="n">
         <v>3.622</v>
@@ -31097,7 +31122,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B43" t="n">
         <v>3.6925</v>
@@ -31105,7 +31130,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B44" t="n">
         <v>3.76</v>
@@ -31113,7 +31138,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B45" t="n">
         <v>3.7965</v>
@@ -31121,7 +31146,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B46" t="n">
         <v>3.8715</v>
@@ -31129,7 +31154,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B47" t="n">
         <v>3.74</v>
@@ -31137,7 +31162,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B48" t="n">
         <v>3.655</v>
@@ -31145,7 +31170,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B49" t="n">
         <v>3.54545454545455</v>
@@ -31153,7 +31178,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B50" t="n">
         <v>3.58952380952381</v>
@@ -31161,7 +31186,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B51" t="n">
         <v>3.78380952380952</v>
@@ -31169,7 +31194,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B52" t="n">
         <v>3.79809523809524</v>
@@ -31177,7 +31202,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B53" t="n">
         <v>3.69761904761905</v>
@@ -31185,7 +31210,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B54" t="n">
         <v>3.72315789473684</v>
@@ -31193,7 +31218,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B55" t="n">
         <v>3.84227272727273</v>
@@ -31201,7 +31226,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B56" t="n">
         <v>3.776</v>
@@ -31209,7 +31234,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B57" t="n">
         <v>3.7135</v>
@@ -31217,7 +31242,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B58" t="n">
         <v>3.7004347826087</v>
@@ -31225,7 +31250,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B59" t="n">
         <v>3.655</v>
@@ -31233,7 +31258,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B60" t="n">
         <v>3.8395</v>
@@ -31241,7 +31266,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B61" t="n">
         <v>3.95363636363636</v>
@@ -31249,7 +31274,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B62" t="n">
         <v>3.98190476190476</v>
@@ -31257,7 +31282,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B63" t="n">
         <v>4.08</v>
@@ -31265,7 +31290,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B64" t="n">
         <v>4.10428571428571</v>
@@ -31273,7 +31298,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B65" t="n">
         <v>4.1465</v>
@@ -31281,7 +31306,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B66" t="n">
         <v>4.17619047619048</v>
@@ -31289,7 +31314,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B67" t="n">
         <v>4.44045454545455</v>
@@ -31297,7 +31322,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B68" t="n">
         <v>4.59526315789474</v>
@@ -31305,7 +31330,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B69" t="n">
         <v>4.658</v>
@@ -31313,7 +31338,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B70" t="n">
         <v>4.84</v>
@@ -31321,7 +31346,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B71" t="n">
         <v>5.077</v>
@@ -31329,7 +31354,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B72" t="n">
         <v>5.08952380952381</v>
@@ -31337,7 +31362,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B73" t="n">
         <v>5.05090909090909</v>
@@ -31345,7 +31370,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B74" t="n">
         <v>5.06052631578947</v>
@@ -31353,7 +31378,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B75" t="n">
         <v>5.05</v>
@@ -31361,7 +31386,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B76" t="n">
         <v>5.01571428571429</v>
@@ -31369,7 +31394,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B77" t="n">
         <v>5.113</v>
@@ -31377,7 +31402,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B78" t="n">
         <v>5.19619047619048</v>
@@ -31385,7 +31410,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B79" t="n">
         <v>5.071</v>
@@ -31393,7 +31418,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B80" t="n">
         <v>4.82904761904762</v>
@@ -31401,7 +31426,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B81" t="n">
         <v>4.595</v>
@@ -31409,7 +31434,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B82" t="n">
         <v>4.27045454545455</v>
@@ -31417,7 +31442,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B83" t="n">
         <v>4.0045</v>
@@ -31425,7 +31450,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B84" t="n">
         <v>4.11954545454545</v>
@@ -31433,7 +31458,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B85" t="n">
         <v>4.33722222222222</v>
@@ -31441,7 +31466,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B86" t="n">
         <v>4.273</v>
@@ -31449,7 +31474,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B87" t="n">
         <v>4.32952380952381</v>
@@ -31457,7 +31482,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B88" t="n">
         <v>4.475</v>
@@ -31465,7 +31490,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B89" t="n">
         <v>4.90857142857143</v>
@@ -31473,7 +31498,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B90" t="n">
         <v>5.13904761904762</v>
@@ -31481,7 +31506,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B91" t="n">
         <v>5.753</v>
@@ -31489,7 +31514,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B92" t="n">
         <v>5.99181818181818</v>
@@ -31497,7 +31522,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B93" t="n">
         <v>6.60666666666667</v>
@@ -31505,7 +31530,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B94" t="n">
         <v>6.92285714285714</v>
@@ -31513,7 +31538,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B95" t="n">
         <v>6.91142857142857</v>
@@ -31521,7 +31546,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B96" t="n">
         <v>6.94714285714286</v>
@@ -31529,7 +31554,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B97" t="n">
         <v>6.7675</v>
@@ -31537,7 +31562,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B98" t="n">
         <v>6.23157894736842</v>
@@ -31545,7 +31570,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B99" t="n">
         <v>5.8</v>
@@ -31553,7 +31578,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B100" t="n">
         <v>5.59</v>
@@ -31561,7 +31586,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B101" t="n">
         <v>5.62636363636364</v>
@@ -31569,7 +31594,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B102" t="n">
         <v>5.6305</v>
@@ -31577,7 +31602,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B103" t="n">
         <v>5.898</v>
@@ -31585,7 +31610,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B104" t="n">
         <v>6.38272727272727</v>
@@ -31593,7 +31618,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B105" t="n">
         <v>6.28842105263158</v>
@@ -31601,7 +31626,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B106" t="n">
         <v>6.60571428571429</v>
@@ -31609,7 +31634,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B107" t="n">
         <v>6.67333333333333</v>
@@ -31617,7 +31642,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B108" t="n">
         <v>6.74571428571429</v>
@@ -31625,7 +31650,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B109" t="n">
         <v>6.9905</v>
@@ -31633,7 +31658,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B110" t="n">
         <v>7.44210526315789</v>
@@ -31641,7 +31666,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B111" t="n">
         <v>7.62666666666667</v>
@@ -31649,7 +31674,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B112" t="n">
         <v>7.73761904761905</v>
@@ -31657,7 +31682,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B113" t="n">
         <v>7.68363636363636</v>
@@ -31665,7 +31690,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B114" t="n">
         <v>7.69</v>
@@ -31673,7 +31698,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B115" t="n">
         <v>7.77117647058823</v>
@@ -31681,7 +31706,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B116" t="n">
         <v>7.80666666666667</v>
@@ -31689,7 +31714,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B117" t="n">
         <v>7.718125</v>
@@ -31697,7 +31722,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B118" t="n">
         <v>7.38857142857143</v>
@@ -31705,7 +31730,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B119" t="n">
         <v>6.80947368421053</v>
@@ -31713,7 +31738,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B120" t="n">
         <v>6.57315789473684</v>
@@ -31721,7 +31746,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B121" t="n">
         <v>5.92904761904762</v>
@@ -31729,7 +31754,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B122" t="n">
         <v>5.76611111111111</v>
@@ -31737,7 +31762,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B123" t="n">
         <v>5.676</v>
@@ -31745,7 +31770,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B124" t="n">
         <v>5.46285714285714</v>
@@ -31753,7 +31778,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B125" t="n">
         <v>5.30380952380952</v>
@@ -31761,7 +31786,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B126" t="n">
         <v>4.821875</v>
@@ -31769,7 +31794,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B127" t="n">
         <v>4.46105263157895</v>
@@ -31777,7 +31802,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B128" t="n">
         <v>4.583</v>
@@ -31785,7 +31810,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B129" t="n">
         <v>4.62421052631579</v>
@@ -31793,7 +31818,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B130" t="n">
         <v>3.36818181818182</v>
@@ -31801,7 +31826,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B131" t="n">
         <v>3.07333333333333</v>
@@ -31809,7 +31834,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B132" t="n">
         <v>3.0535</v>
@@ -31817,7 +31842,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B133" t="n">
         <v>3.10954545454545</v>
@@ -31825,7 +31850,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B134" t="n">
         <v>3.54142857142857</v>
@@ -31833,7 +31858,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B135" t="n">
         <v>3.87136363636364</v>
@@ -31841,7 +31866,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B136" t="n">
         <v>3.89666666666667</v>
@@ -31849,7 +31874,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B137" t="n">
         <v>3.848</v>
@@ -31857,7 +31882,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B138" t="n">
         <v>3.33285714285714</v>
@@ -31865,7 +31890,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B139" t="n">
         <v>3.24636363636364</v>
@@ -31873,7 +31898,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B140" t="n">
         <v>3.281</v>
@@ -31881,7 +31906,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B141" t="n">
         <v>3.47789473684211</v>
@@ -31889,7 +31914,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B142" t="n">
         <v>3.4952380952381</v>
@@ -31897,7 +31922,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B143" t="n">
         <v>3.64052631578947</v>
@@ -31905,7 +31930,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B144" t="n">
         <v>3.66952380952381</v>
@@ -31913,7 +31938,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B145" t="n">
         <v>3.61590909090909</v>
@@ -31921,7 +31946,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B146" t="n">
         <v>3.4875</v>
@@ -31929,7 +31954,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B147" t="n">
         <v>3.46</v>
@@ -31937,7 +31962,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B148" t="n">
         <v>3.5605</v>
@@ -31945,7 +31970,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B149" t="n">
         <v>3.56857142857143</v>
@@ -31953,7 +31978,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B150" t="n">
         <v>3.60571428571429</v>
@@ -31961,7 +31986,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B151" t="n">
         <v>3.67736842105263</v>
@@ -31969,7 +31994,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B152" t="n">
         <v>3.77727272727273</v>
@@ -31977,7 +32002,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B153" t="n">
         <v>3.925</v>
@@ -31985,7 +32010,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B154" t="n">
         <v>4.25636363636364</v>
@@ -31993,7 +32018,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B155" t="n">
         <v>4.71444444444444</v>
@@ -32001,7 +32026,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B156" t="n">
         <v>5.10681818181818</v>
@@ -32009,7 +32034,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B157" t="n">
         <v>5.35666666666667</v>
@@ -32017,7 +32042,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B158" t="n">
         <v>5.65285714285714</v>
@@ -32025,7 +32050,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B159" t="n">
         <v>6.01136363636364</v>
@@ -32033,7 +32058,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B160" t="n">
         <v>6.38105263157895</v>
@@ -32041,7 +32066,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B161" t="n">
         <v>6.48545454545455</v>
@@ -32049,7 +32074,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B162" t="n">
         <v>6.45952380952381</v>
@@ -32057,7 +32082,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B163" t="n">
         <v>6.38263157894737</v>
@@ -32065,7 +32090,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B164" t="n">
         <v>6.29090909090909</v>
@@ -32073,7 +32098,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B165" t="n">
         <v>6.1445</v>
@@ -32081,7 +32106,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B166" t="n">
         <v>6.25</v>
@@ -32089,7 +32114,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B167" t="n">
         <v>7.23571428571429</v>
@@ -32097,7 +32122,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B168" t="n">
         <v>8.28</v>
@@ -32105,7 +32130,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B169" t="n">
         <v>8.6555</v>
@@ -32113,7 +32138,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B170" t="n">
         <v>8.87954545454545</v>
@@ -32121,7 +32146,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B171" t="n">
         <v>9.09666666666667</v>
@@ -32129,7 +32154,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B172" t="n">
         <v>9.026</v>
@@ -32137,7 +32162,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B173" t="n">
         <v>8.63681818181818</v>
@@ -32145,7 +32170,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B174" t="n">
         <v>7.827</v>
@@ -32153,7 +32178,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B175" t="n">
         <v>7.3205</v>
@@ -32161,7 +32186,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B176" t="n">
         <v>6.65090909090909</v>
@@ -32169,7 +32194,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B177" t="n">
         <v>6.351</v>
@@ -32177,7 +32202,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B178" t="n">
         <v>6.277</v>
@@ -32185,7 +32210,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B179" t="n">
         <v>6.49181818181818</v>
@@ -32193,7 +32218,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B180" t="n">
         <v>6.92142857142857</v>
@@ -32201,7 +32226,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B181" t="n">
         <v>6.95285714285714</v>
@@ -32209,7 +32234,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B182" t="n">
         <v>7.22409090909091</v>
@@ -32217,7 +32242,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B183" t="n">
         <v>7.71125</v>
@@ -32225,7 +32250,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B184" t="n">
         <v>8.38380952380952</v>
@@ -32233,7 +32258,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B185" t="n">
         <v>8.32136363636364</v>
@@ -32241,7 +32266,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B186" t="n">
         <v>8.42105263157895</v>
@@ -32249,7 +32274,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B187" t="n">
         <v>8.55809523809524</v>
@@ -37057,7 +37082,7 @@
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>1063</v>
+        <v>871</v>
       </c>
       <c r="B788" t="n">
         <v>2.19095238095238</v>
@@ -37065,10 +37090,10 @@
     </row>
     <row r="789">
       <c r="A789" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B789" t="n">
-        <v>2.19</v>
+        <v>2.18714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C08 Figures.xlsx
+++ b/Data/C08 Figures.xlsx
@@ -30758,7 +30758,7 @@
         <v>868</v>
       </c>
       <c r="B689" t="n">
-        <v>5.01122972130058</v>
+        <v>4.99322235650287</v>
       </c>
     </row>
     <row r="690">
@@ -30766,7 +30766,15 @@
         <v>869</v>
       </c>
       <c r="B690" t="n">
-        <v>4.65999663167655</v>
+        <v>4.62644635954783</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>870</v>
+      </c>
+      <c r="B691" t="n">
+        <v>4.14048381861414</v>
       </c>
     </row>
   </sheetData>
@@ -37093,7 +37101,7 @@
         <v>1065</v>
       </c>
       <c r="B789" t="n">
-        <v>2.18714285714286</v>
+        <v>2.18090909090909</v>
       </c>
     </row>
   </sheetData>
